--- a/opta/data/merged/merged_tournamentschedule.xlsx
+++ b/opta/data/merged/merged_tournamentschedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T204"/>
+  <dimension ref="A1:U204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,11 @@
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>venue</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>goal_events</t>
         </is>
@@ -596,6 +601,7 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -655,6 +661,7 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -722,6 +729,7 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -779,6 +787,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -844,6 +853,7 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -906,6 +916,7 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -966,6 +977,7 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1026,6 +1038,7 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1084,6 +1097,7 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1146,6 +1160,7 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1205,6 +1220,7 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1264,6 +1280,7 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1331,6 +1348,7 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1387,6 +1405,7 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1448,6 +1467,7 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1509,6 +1529,7 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1572,6 +1593,7 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1633,6 +1655,7 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1696,6 +1719,7 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1758,6 +1782,7 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1815,6 +1840,7 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1877,6 +1903,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1939,6 +1966,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2001,6 +2029,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2065,6 +2094,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2153,10 +2183,15 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 25, 'S. van Hooijdonk', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 49, 'A. Verschueren', 'YC']]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
+        <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2260,7 +2295,12 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 6, 'P. Gladon'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 48, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 51, 'D. Rensch'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 62, 'B. Brobbey'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 87, 'B. Yılmaz']]</t>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2396,12 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 10, 'M. Azarkan'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 44, 'J. Baas']]</t>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2455,6 +2500,11 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 18, 'J. Bakayoko'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 26, 'M. Kieftenbeld'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 38, 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 54, 'C. Gakpo'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 62, 'O. Romeny']]</t>
         </is>
       </c>
@@ -2554,6 +2604,11 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
           <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 15, 'D. Van den Buijs'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 45, 'I. Bel Hassani'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 52, 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 85, 'B. Dost']]</t>
         </is>
       </c>
@@ -2649,6 +2704,11 @@
         </is>
       </c>
       <c r="T32" t="inlineStr">
+        <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 2, 'C. Ngonge'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 34, 'J. Strand Larsen'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 38, 'D. van Mieghem'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 68, 'B. Benamar']]</t>
         </is>
@@ -2747,6 +2807,11 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 19, 'M. Manhoef'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 31, 'P. Wålemark'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 41, 'Danilo'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 56, 'N. Frederiksen'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 61, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 66, 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 69, 'L. Geertruida']]</t>
         </is>
       </c>
@@ -2840,6 +2905,11 @@
         </is>
       </c>
       <c r="T34" t="inlineStr">
+        <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 91, 'S. Steijn']]</t>
         </is>
@@ -2935,6 +3005,11 @@
         </is>
       </c>
       <c r="T35" t="inlineStr">
+        <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 70, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 86, 'M. van Brederode']]</t>
         </is>
@@ -3033,6 +3108,11 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 14, 'R. Kharchouch'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 20, 'R. Kharchouch'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 29, 'N. Frederiksen'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 76, 'K. Goudmijn']]</t>
         </is>
       </c>
@@ -3130,6 +3210,11 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 3, 'L. de Jong'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 14, 'I. Lidberg'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 48, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 55, 'A. Obispo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 76, 'X. Simons'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 80, 'O. Edvardsen'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 89, 'J. Veerman']]</t>
         </is>
       </c>
@@ -3227,6 +3312,11 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
           <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, 'L. Bernadou'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'Julen Lobete']]</t>
         </is>
       </c>
@@ -3318,6 +3408,11 @@
         </is>
       </c>
       <c r="T39" t="inlineStr">
+        <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3416,6 +3511,11 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
@@ -3512,6 +3612,11 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 11, 'D. van Mieghem'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 17, 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 19, 'O. Tannane'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 76, 'M. Duelund'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 90, 'J. Bruijn']]</t>
         </is>
       </c>
@@ -3607,6 +3712,11 @@
         </is>
       </c>
       <c r="T42" t="inlineStr">
+        <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 4, 'S. Bergwijn'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 10, 'C. Ngonge'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 28, 'Antony'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 45, 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 57, 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 66, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 88, 'S. Berghuis']]</t>
         </is>
@@ -3705,6 +3815,11 @@
         </is>
       </c>
       <c r="T43" t="inlineStr">
+        <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 22, 'R. van Wolfswinkel'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 44, 'J. Brenet'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 53, 'V. Misidjan']]</t>
         </is>
@@ -3805,6 +3920,11 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 1, 'V. van Crooij'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 46, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, 'D. de Wit'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 59, 'V. van Crooij'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 65, 'M. Kerkez']]</t>
         </is>
       </c>
@@ -3904,6 +4024,11 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
           <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 5, 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 48, 'A. Sarr'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 72, 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 77, 'S. van Hooijdonk']]</t>
         </is>
       </c>
@@ -3997,6 +4122,11 @@
         </is>
       </c>
       <c r="T46" t="inlineStr">
+        <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 3, 'J. de Lange']]</t>
         </is>
@@ -4095,6 +4225,11 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 1, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 39, 'C. Gakpo'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 40, 'H. Veerman'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 47, 'B. Plat'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 51, 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 67, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 79, 'J. Bakayoko']]</t>
         </is>
       </c>
@@ -4186,6 +4321,11 @@
         </is>
       </c>
       <c r="T48" t="inlineStr">
+        <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
         <is>
           <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 54, 'Iván Márquez'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, 'J. Odgaard']]</t>
         </is>
@@ -4282,6 +4422,11 @@
         </is>
       </c>
       <c r="T49" t="inlineStr">
+        <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 37, 'S. Bergwijn']]</t>
         </is>
@@ -4382,6 +4527,11 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 68, 'Danilo']]</t>
         </is>
       </c>
@@ -4476,6 +4626,11 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
           <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 75, 'L. Duarte'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, 'I. Cissoko']]</t>
         </is>
       </c>
@@ -4569,6 +4724,11 @@
         </is>
       </c>
       <c r="T52" t="inlineStr">
+        <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
         <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 18, 'T. Lauritsen']]</t>
         </is>
@@ -4667,6 +4827,11 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 35, 'F. Jozefzoon'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 50, 'I. Bel Hassani'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 61, 'M. Bero'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 71, 'R. Flamingo']]</t>
         </is>
       </c>
@@ -4760,6 +4925,11 @@
         </is>
       </c>
       <c r="T54" t="inlineStr">
+        <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
         <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 60, 'Q. Timber'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 85, 'S. Giménez'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 88, 'J. Rasmussen'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 92, 'S. Szymański']]</t>
         </is>
@@ -4857,6 +5027,11 @@
         </is>
       </c>
       <c r="T55" t="inlineStr">
+        <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
         <is>
           <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 22, 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 44, 'M. van Ewijk'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, 'B. Yılmaz']]</t>
         </is>
@@ -4958,6 +5133,11 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 10, 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 46, 'B. Brobbey']]</t>
         </is>
       </c>
@@ -5054,6 +5234,11 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 2, 'J. Veerman'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 29, 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 45, 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 55, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 59, 'C. Gakpo'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 74, 'S. Horemans'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 84, 'X. Simons']]</t>
         </is>
       </c>
@@ -5149,6 +5334,11 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 83, 'L. Zeefuik']]</t>
         </is>
       </c>
@@ -5243,6 +5433,11 @@
         </is>
       </c>
       <c r="T59" t="inlineStr">
+        <is>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
         <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 90, 'J. Clasie']]</t>
         </is>
@@ -5339,6 +5534,11 @@
         </is>
       </c>
       <c r="T60" t="inlineStr">
+        <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 1, 'D. Cleonise'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 8, 'C. Tzolis'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 62, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 93, 'V. Černý']]</t>
         </is>
@@ -5442,6 +5642,11 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 64, 'B. Dost'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 67, 'Rodrigo Guth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 70, 'T. Douvikas'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 77, 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 82, 'B. Yılmaz'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 86, 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 97, 'T. Noslin']]</t>
         </is>
       </c>
@@ -5544,6 +5749,11 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 35, 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 40, 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 53, 'D. Rensch'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, 'M. Kudus']]</t>
         </is>
       </c>
@@ -5643,6 +5853,11 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 17, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 24, 'V. Černý'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 55, 'G. Til']]</t>
         </is>
       </c>
@@ -5740,6 +5955,11 @@
         </is>
       </c>
       <c r="T64" t="inlineStr">
+        <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
         <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 14, 'V. van Crooij'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 68, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 72, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 85, 'S. Mijnans']]</t>
         </is>
@@ -5841,6 +6061,11 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 3, 'P. Wålemark'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 13, 'I. Lidberg'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 24, 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 42, 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 56, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, 'S. Szymański'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 96, 'O. Edvardsen']]</t>
         </is>
       </c>
@@ -5938,6 +6163,11 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 15, 'J. Baas'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 38, 'S. Adewoye'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 43, 'R. El Yaakoubi'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 50, 'P. Clement'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 60, 'T. Lutonda'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 80, 'V. Anita'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 91, 'M. Kramer']]</t>
         </is>
       </c>
@@ -6034,6 +6264,11 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 21, 'J. Odgaard'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 27, 'D. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 34, 'T. Reijnders']]</t>
         </is>
       </c>
@@ -6129,6 +6364,11 @@
         </is>
       </c>
       <c r="T68" t="inlineStr">
+        <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6229,6 +6469,11 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 77, 'M. Bero']]</t>
         </is>
       </c>
@@ -6326,6 +6571,11 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
           <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 23, 'B. Adekanye'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 31, 'C. Eiting'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 77, 'B. Kuipers'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 82, 'B. Kuipers'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 97, 'R. Mühren']]</t>
         </is>
       </c>
@@ -6421,6 +6671,11 @@
         </is>
       </c>
       <c r="T71" t="inlineStr">
+        <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
         <is>
           <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 71, 'O. Özyakup'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 95, 'Pedro Marques']]</t>
         </is>
@@ -6522,6 +6777,11 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 4, 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 48, 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 59, 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 70, 'B. Brobbey']]</t>
         </is>
       </c>
@@ -6616,6 +6876,11 @@
         </is>
       </c>
       <c r="T73" t="inlineStr">
+        <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
         <is>
           <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 45, 'O. Romeny'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 61, 'N. Tjoe-A-On'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 95, 'S. Seymor']]</t>
         </is>
@@ -6714,6 +6979,11 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 96, 'C. Gakpo']]</t>
         </is>
       </c>
@@ -6811,6 +7081,11 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'B. Dost']]</t>
         </is>
       </c>
@@ -6906,6 +7181,11 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 71, 'T. Suslov']]</t>
         </is>
       </c>
@@ -7000,6 +7280,11 @@
         </is>
       </c>
       <c r="T77" t="inlineStr">
+        <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 5, 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 35, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 73, 'S. Giménez']]</t>
         </is>
@@ -7098,6 +7383,11 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
@@ -7193,6 +7483,11 @@
         </is>
       </c>
       <c r="T79" t="inlineStr">
+        <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
         <is>
           <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 61, 'R. Pepi'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 73, 'S. Mijnans'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 90, 'V. van Crooij']]</t>
         </is>
@@ -7291,6 +7586,11 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 21, 'R. Mühren'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 48, 'B. Białek']]</t>
         </is>
       </c>
@@ -7388,6 +7688,11 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
           <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 17, 'J. Jacobs'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 32, 'M. Kramer'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 77, 'M. Tol'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 82, 'Z. Bakkali'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 86, 'I. Bel Hassani'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'M. Kramer']]</t>
         </is>
       </c>
@@ -7481,6 +7786,11 @@
         </is>
       </c>
       <c r="T82" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
         <is>
           <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 87, 'R. Vita']]</t>
         </is>
@@ -7577,6 +7887,11 @@
         </is>
       </c>
       <c r="T83" t="inlineStr">
+        <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
         <is>
           <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 31, 'O. Edvardsen'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 57, 'O. Edvardsen']]</t>
         </is>
@@ -7678,6 +7993,11 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 2, 'V. Misidjan'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 28, 'M. van Ewijk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 36, 'P. Bochniewicz']]</t>
         </is>
       </c>
@@ -7774,6 +8094,11 @@
         </is>
       </c>
       <c r="T85" t="inlineStr">
+        <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
         <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 3, 'O. Idrissi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 16, 'J. Branthwaite'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, 'C. Gakpo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 42, 'Danilo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 47, 'G. Til'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 73, 'O. Kökçü'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 83, 'A. Obispo']]</t>
         </is>
@@ -7874,6 +8199,11 @@
         </is>
       </c>
       <c r="T86" t="inlineStr">
+        <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
         <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 12, 'M. Kudus'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 40, 'M. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 51, 'J. Odgaard']]</t>
         </is>
@@ -7980,6 +8310,11 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 6, 'D. Tadić'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 25, 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 74, 'M. Manhoef'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 79, 'L. Lucca']]</t>
         </is>
       </c>
@@ -8073,6 +8408,11 @@
         </is>
       </c>
       <c r="T88" t="inlineStr">
+        <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
         <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 4, 'Q. Hartman']]</t>
         </is>
@@ -8170,6 +8510,11 @@
         </is>
       </c>
       <c r="T89" t="inlineStr">
+        <is>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
         <is>
           <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 44, 'L. Schöne']]</t>
         </is>
@@ -8271,6 +8616,11 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 69, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 72, 'S. Mijnans'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 88, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 91, 'A. Verschueren']]</t>
         </is>
       </c>
@@ -8367,6 +8717,11 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 9, 'J. Karlsson'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 32, 'I. Bel Hassani'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 87, 'Z. Bakkali'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 92, 'Z. Bakkali']]</t>
         </is>
       </c>
@@ -8460,6 +8815,11 @@
         </is>
       </c>
       <c r="T92" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
         <is>
           <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, 'R. Živković']]</t>
         </is>
@@ -8567,6 +8927,11 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 23, 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 50, 'É. Gutiérrez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 83, 'L. Lucca']]</t>
         </is>
       </c>
@@ -8660,6 +9025,11 @@
         </is>
       </c>
       <c r="T94" t="inlineStr">
+        <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
         <is>
           <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 58, 'M. van Ewijk']]</t>
         </is>
@@ -8759,6 +9129,11 @@
       </c>
       <c r="T95" t="inlineStr">
         <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 34, 'R. van Wolfswinkel'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 92, 'W. Willumsson']]</t>
         </is>
       </c>
@@ -8856,6 +9231,11 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
           <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 40, 'F. Krüger'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 62, 'T. Booth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'S. van de Streek']]</t>
         </is>
       </c>
@@ -8948,6 +9328,11 @@
         </is>
       </c>
       <c r="T97" t="inlineStr">
+        <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
         <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 16, 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 43, 'S. Szymański']]</t>
         </is>
@@ -9042,6 +9427,11 @@
         </is>
       </c>
       <c r="T98" t="inlineStr">
+        <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
         <is>
           <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 45, 'R. Pepi'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 78, 'P. Gladon'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, 'P. Gladon'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 91, 'F. Krüger'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 95, 'T. Noslin']]</t>
         </is>
@@ -9138,6 +9528,11 @@
         </is>
       </c>
       <c r="T99" t="inlineStr">
+        <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
         <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 14, 'T. Booth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 73, 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'S. van de Streek'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 92, 'C. Bozdoğan']]</t>
         </is>
@@ -9237,6 +9632,11 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
           <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 10, 'J. Jacobs'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 36, 'A. Sarr'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 81, 'A. Tahiri']]</t>
         </is>
       </c>
@@ -9330,6 +9730,11 @@
         </is>
       </c>
       <c r="T101" t="inlineStr">
+        <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 63, 'S. Steijn'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 71, 'A. Verschueren']]</t>
         </is>
@@ -9432,6 +9837,11 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 4, 'D. Van den Buijs'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 38, 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 50, 'S. El Karouani'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 73, 'M. Mattsson'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 78, 'Pedro Marques'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 92, 'Pedro Marques']]</t>
         </is>
       </c>
@@ -9532,6 +9942,11 @@
       </c>
       <c r="T103" t="inlineStr">
         <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
           <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 6, 'J. Veldmate'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 8, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 21, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 25, 'S. Bergwijn'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, 'R. Živković'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 84, 'M. Bouchouari']]</t>
         </is>
       </c>
@@ -9631,6 +10046,11 @@
         </is>
       </c>
       <c r="T104" t="inlineStr">
+        <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
         <is>
           <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 8, 'P. Rommens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 20, 'P. Rommens'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 49, 'M. Bero'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 93, 'S. van Duivenbooden']]</t>
         </is>
@@ -9734,6 +10154,11 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
           <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 4, 'K. Goudmijn'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 11, 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 20, 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 50, 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 66, 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 78, 'P. Wålemark']]</t>
         </is>
       </c>
@@ -9828,6 +10253,11 @@
         </is>
       </c>
       <c r="T106" t="inlineStr">
+        <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
         <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 18, 'V. Pavlidis']]</t>
         </is>
@@ -9929,6 +10359,11 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 5, 'R. van Wolfswinkel'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 67, 'M. Sadílek']]</t>
         </is>
       </c>
@@ -10023,6 +10458,11 @@
       </c>
       <c r="T108" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
@@ -10117,6 +10557,11 @@
       </c>
       <c r="T109" t="inlineStr">
         <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 77, 'V. Pavlidis'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 87, 'M. Sankoh']]</t>
         </is>
       </c>
@@ -10209,6 +10654,11 @@
         </is>
       </c>
       <c r="T110" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
         <is>
           <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 21, 'B. Kuipers'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 44, 'B. Adekanye']]</t>
         </is>
@@ -10303,6 +10753,11 @@
         </is>
       </c>
       <c r="T111" t="inlineStr">
+        <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -10400,6 +10855,11 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 3, 'J. Toornstra'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 90, 'A. Jahanbakhsh']]</t>
         </is>
       </c>
@@ -10493,6 +10953,11 @@
         </is>
       </c>
       <c r="T113" t="inlineStr">
+        <is>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
         <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 8, 'B. Ould-Chikh'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 9, 'R. Mühren'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 74, 'H. Veerman']]</t>
         </is>
@@ -10590,6 +11055,11 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 38, 'D. Klaassen'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 52, 'L. Dimata']]</t>
         </is>
       </c>
@@ -10684,6 +11154,11 @@
         </is>
       </c>
       <c r="T115" t="inlineStr">
+        <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
         <is>
           <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 69, 'R. El Yaakoubi']]</t>
         </is>
@@ -10784,6 +11259,11 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 33, 'D. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 46, 'T. Reijnders']]</t>
         </is>
       </c>
@@ -10877,6 +11357,11 @@
         </is>
       </c>
       <c r="T117" t="inlineStr">
+        <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
         <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 19, 'Igor Paixão'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 30, 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 91, 'S. Giménez']]</t>
         </is>
@@ -10972,6 +11457,11 @@
         </is>
       </c>
       <c r="T118" t="inlineStr">
+        <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
         <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 91, 'J. Kitolano']]</t>
         </is>
@@ -11072,6 +11562,11 @@
       </c>
       <c r="T119" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
@@ -11168,6 +11663,11 @@
       </c>
       <c r="T120" t="inlineStr">
         <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
           <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 63, 'M. Seuntjens'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 69, 'X. Mbuyamba'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 81, 'F. Da Silva']]</t>
         </is>
       </c>
@@ -11262,6 +11762,11 @@
         </is>
       </c>
       <c r="T121" t="inlineStr">
+        <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -11361,6 +11866,11 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
           <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 46, 'Iñigo Córdoba'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 65, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 76, 'I. Sangaré'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 99, 'B. Yılmaz']]</t>
         </is>
       </c>
@@ -11458,6 +11968,11 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
           <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 3, 'W. Willumsson'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 10, 'B. Adekanye'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 13, 'S. van de Streek'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 90, 'S. Sow']]</t>
         </is>
       </c>
@@ -11555,6 +12070,11 @@
       </c>
       <c r="T124" t="inlineStr">
         <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
@@ -11651,6 +12171,11 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 18, 'D. Mirani'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 80, 'M. Azarkan']]</t>
         </is>
       </c>
@@ -11743,6 +12268,11 @@
         </is>
       </c>
       <c r="T126" t="inlineStr">
+        <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
         <is>
           <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 12, 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 35, 'L. Dimata'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 44, 'R. Živković'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 52, 'I. Cissoko']]</t>
         </is>
@@ -11838,6 +12368,11 @@
         </is>
       </c>
       <c r="T127" t="inlineStr">
+        <is>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
         <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 9, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 18, 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 51, 'V. van Crooij']]</t>
         </is>
@@ -11938,6 +12473,11 @@
       </c>
       <c r="T128" t="inlineStr">
         <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 48, 'G. Til']]</t>
         </is>
       </c>
@@ -12036,6 +12576,11 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
           <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 24, 'M. Seuntjens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 46, 'José Fontán'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 71, 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 78, 'Y. Oukili']]</t>
         </is>
       </c>
@@ -12133,6 +12678,11 @@
       </c>
       <c r="T130" t="inlineStr">
         <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
           <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 5, 'A. Sarr'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 40, 'F. Krüger'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 81, 'P. van Amersfoort'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 82, 'A. Sarr']]</t>
         </is>
       </c>
@@ -12224,6 +12774,11 @@
         </is>
       </c>
       <c r="T131" t="inlineStr">
+        <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 46, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 64, 'V. Misidjan']]</t>
         </is>
@@ -12321,6 +12876,11 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 34, 'Igor Paixão'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 71, 'D. Klaassen']]</t>
         </is>
       </c>
@@ -12414,6 +12974,11 @@
         </is>
       </c>
       <c r="T133" t="inlineStr">
+        <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
         <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 4, 'D. de Wit'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 11, 'B. Yılmaz'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 24, 'Ximo Navarro'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 56, 'V. Pavlidis']]</t>
         </is>
@@ -12518,6 +13083,11 @@
       </c>
       <c r="T134" t="inlineStr">
         <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
           <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 24, 'L. Bernadou']]</t>
         </is>
       </c>
@@ -12611,6 +13181,11 @@
         </is>
       </c>
       <c r="T135" t="inlineStr">
+        <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -12706,6 +13281,11 @@
         </is>
       </c>
       <c r="T136" t="inlineStr">
+        <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
         <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 38, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, 'D. Mihailovic'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 87, 'Y. Sugawara'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 92, 'W. Willumsson'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 95, 'Z. Buurmeester']]</t>
         </is>
@@ -12807,6 +13387,11 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 33, 'R. van Wolfswinkel'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 44, 'G. Vidović'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 52, 'M. Bero'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 59, 'V. Černý']]</t>
         </is>
       </c>
@@ -12902,6 +13487,11 @@
       </c>
       <c r="T138" t="inlineStr">
         <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
           <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 58, 'Úmaro Embaló'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 98, 'B. Yılmaz']]</t>
         </is>
       </c>
@@ -12995,6 +13585,11 @@
         </is>
       </c>
       <c r="T139" t="inlineStr">
+        <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
         <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 6, 'T. Douvikas']]</t>
         </is>
@@ -13094,6 +13689,11 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 9, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 48, 'O. Kökçü']]</t>
         </is>
       </c>
@@ -13189,6 +13789,11 @@
         </is>
       </c>
       <c r="T141" t="inlineStr">
+        <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
         <is>
           <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 77, 'D. van Kaam']]</t>
         </is>
@@ -13291,6 +13896,11 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 59, 'D. Mirani'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 80, 'M. Kudus']]</t>
         </is>
       </c>
@@ -13391,6 +14001,11 @@
         </is>
       </c>
       <c r="T143" t="inlineStr">
+        <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
         <is>
           <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 3, 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 28, 'J. Lelieveld']]</t>
         </is>
@@ -13496,6 +14111,11 @@
       </c>
       <c r="T144" t="inlineStr">
         <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 14, 'J. Veerman'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 64, 'A. El Ghazi']]</t>
         </is>
       </c>
@@ -13590,6 +14210,11 @@
         </is>
       </c>
       <c r="T145" t="inlineStr">
+        <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
         <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 58, 'A. Verschueren'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 80, 'Pedro Marques']]</t>
         </is>
@@ -13688,6 +14313,11 @@
         </is>
       </c>
       <c r="T146" t="inlineStr">
+        <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
         <is>
           <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 21, 'P. van Amersfoort'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 32, 'B. Białek'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 45, 'G. Vidović'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 47, 'M. Manhoef']]</t>
         </is>
@@ -13791,6 +14421,11 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 12, 'T. Douvikas'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 16, 'T. Douvikas'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 20, 'M. Dekker'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 30, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 34, 'V. Pavlidis'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 41, 'N. Viergever'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 65, 'T. Douvikas'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 70, 'M. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 78, 'V. Pavlidis'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 80, 'S. van de Streek']]</t>
         </is>
       </c>
@@ -13890,6 +14525,11 @@
       </c>
       <c r="T148" t="inlineStr">
         <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 30, 'S. Giménez'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 68, 'J. Brenet']]</t>
         </is>
       </c>
@@ -13985,6 +14625,11 @@
         </is>
       </c>
       <c r="T149" t="inlineStr">
+        <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
         <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 15, 'D. Tadić'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 36, 'R. El Yaakoubi'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 45, 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 61, 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 83, 'D. Rensch']]</t>
         </is>
@@ -14084,6 +14729,11 @@
         </is>
       </c>
       <c r="T150" t="inlineStr">
+        <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
         <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 21, 'G. Oristanio'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 50, 'J. Hove'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 55, 'C. Twigt'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 73, 'R. Pepi'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 78, 'R. Mühren']]</t>
         </is>
@@ -14185,6 +14835,11 @@
       </c>
       <c r="T151" t="inlineStr">
         <is>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
           <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 31, 'M. Hoedemakers'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 75, 'B. Yılmaz'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, 'Iñigo Córdoba']]</t>
         </is>
       </c>
@@ -14277,6 +14932,11 @@
         </is>
       </c>
       <c r="T152" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -14376,6 +15036,11 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 62, 'X. Mbuyamba'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 83, 'J. Odgaard']]</t>
         </is>
       </c>
@@ -14474,6 +15139,11 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 69, 'T. Douvikas']]</t>
         </is>
       </c>
@@ -14568,6 +15238,11 @@
       </c>
       <c r="T155" t="inlineStr">
         <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
           <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 33, 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 38, 'C. Arcus'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 43, 'J. Assehnoun'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 87, 'D. Oroz']]</t>
         </is>
       </c>
@@ -14661,6 +15336,11 @@
         </is>
       </c>
       <c r="T156" t="inlineStr">
+        <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -14758,6 +15438,11 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 36, 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 79, 'B. Brobbey'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 93, 'B. Brobbey']]</t>
         </is>
       </c>
@@ -14850,6 +15535,11 @@
         </is>
       </c>
       <c r="T158" t="inlineStr">
+        <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
         <is>
           <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 35, 'F. Stokkers']]</t>
         </is>
@@ -14951,6 +15641,11 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 8, 'A. El Ghazi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 68, 'T. Hazard'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 81, 'A. Jahanbakhsh'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 96, 'A. Jahanbakhsh']]</t>
         </is>
       </c>
@@ -15050,6 +15745,11 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 5, 'S. Steijn'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 69, 'O. Antman']]</t>
         </is>
       </c>
@@ -15147,6 +15847,11 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 22, 'L. Geertruida'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 34, 'S. Giménez'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 75, 'S. van Ottele']]</t>
         </is>
       </c>
@@ -15244,6 +15949,11 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 20, 'S. Mijnans'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 27, 'J. Karlsson'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 30, 'S. Mijnans'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 35, 'J. Odgaard'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 38, 'V. Pavlidis']]</t>
         </is>
       </c>
@@ -15340,6 +16050,11 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
           <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 17, 'M. Seuntjens'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 50, 'B. Brobbey'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 78, 'J. Timber'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 81, 'M. Kudus']]</t>
         </is>
       </c>
@@ -15436,6 +16151,11 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
           <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 76, 'O. Özyakup']]</t>
         </is>
       </c>
@@ -15527,6 +16247,11 @@
         </is>
       </c>
       <c r="T165" t="inlineStr">
+        <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 16, 'J. Brenet'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 17, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 20, 'M. Hilgers']]</t>
         </is>
@@ -15621,6 +16346,11 @@
         </is>
       </c>
       <c r="T166" t="inlineStr">
+        <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -15716,6 +16446,11 @@
         </is>
       </c>
       <c r="T167" t="inlineStr">
+        <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
         <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 27, 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 46, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 69, 'J. Branthwaite'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 73, 'J. Bakayoko'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 84, 'Fábio Silva'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 88, 'G. Til']]</t>
         </is>
@@ -15813,6 +16548,11 @@
       </c>
       <c r="T168" t="inlineStr">
         <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 4, 'V. van Crooij'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 53, 'F. Stokkers'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 58, 'T. Lauritsen']]</t>
         </is>
       </c>
@@ -15905,6 +16645,11 @@
         </is>
       </c>
       <c r="T169" t="inlineStr">
+        <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
         <is>
           <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 63, 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 94, 'M. Wittek']]</t>
         </is>
@@ -16000,6 +16745,11 @@
         </is>
       </c>
       <c r="T170" t="inlineStr">
+        <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
         <is>
           <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 12, 'R. Pepi'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 14, 'M. Araujo']]</t>
         </is>
@@ -16098,6 +16848,11 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 33, 'O. Boussaid'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 41, 'J. Bakayoko'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 57, 'L. de Jong'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 60, 'S. van de Streek']]</t>
         </is>
       </c>
@@ -16192,6 +16947,11 @@
         </is>
       </c>
       <c r="T172" t="inlineStr">
+        <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
         <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 6, 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 27, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 84, 'M. Kudus']]</t>
         </is>
@@ -16290,6 +17050,11 @@
       </c>
       <c r="T173" t="inlineStr">
         <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
           <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 44, 'M. Mattsson'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 73, 'S. El Karouani'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 85, 'A. Musaba']]</t>
         </is>
       </c>
@@ -16386,6 +17151,11 @@
       </c>
       <c r="T174" t="inlineStr">
         <is>
+          <t>Cambuur Stadion</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
           <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 1, 'B. Johnsen'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 22, 'O. Sahraoui'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 65, 'M. van Ewijk']]</t>
         </is>
       </c>
@@ -16482,6 +17252,11 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
           <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 49, 'B. Yılmaz'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 76, 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 86, 'Julen Lobete'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 90, 'F. Jozefzoon']]</t>
         </is>
       </c>
@@ -16575,6 +17350,11 @@
         </is>
       </c>
       <c r="T176" t="inlineStr">
+        <is>
+          <t>De Adelaarshorst</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
         <is>
           <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 6, 'P. Rommens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 16, 'I. Lidberg']]</t>
         </is>
@@ -16672,6 +17452,11 @@
         </is>
       </c>
       <c r="T177" t="inlineStr">
+        <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
         <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 17, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 47, 'A. Jahanbakhsh'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 90, 'M. Pedersen']]</t>
         </is>
@@ -16770,6 +17555,11 @@
         </is>
       </c>
       <c r="T178" t="inlineStr">
+        <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
         <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 12, 'D. van Mieghem'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 68, 'D. van Mieghem']]</t>
         </is>
@@ -16872,6 +17662,11 @@
       </c>
       <c r="T179" t="inlineStr">
         <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 40, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 73, 'W. Goes'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 85, 'B. Johnsen']]</t>
         </is>
       </c>
@@ -16970,6 +17765,11 @@
       </c>
       <c r="T180" t="inlineStr">
         <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 74, 'V. Jensen'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 88, 'O. Boussaid'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 90, 'A. Descotte']]</t>
         </is>
       </c>
@@ -17064,6 +17864,11 @@
         </is>
       </c>
       <c r="T181" t="inlineStr">
+        <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
         <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 9, 'Fábio Silva'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 47, 'V. Misidjan'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 57, 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 74, 'X. Simons']]</t>
         </is>
@@ -17160,6 +17965,11 @@
         </is>
       </c>
       <c r="T182" t="inlineStr">
+        <is>
+          <t>GelreDome</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
         <is>
           <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 30, 'M. van Ginkel'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 32, 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 54, 'E. Álvarez']]</t>
         </is>
@@ -17258,6 +18068,11 @@
       </c>
       <c r="T183" t="inlineStr">
         <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
           <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 10, 'Ximo Navarro'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 16, 'M. Wieffer'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 43, 'S. Giménez'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 48, 'Deroy Duarte'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 63, 'Igor Paixão'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, 'D. Siovas']]</t>
         </is>
       </c>
@@ -17352,6 +18167,11 @@
       </c>
       <c r="T184" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 52, 'M. Kudus']]</t>
         </is>
       </c>
@@ -17445,6 +18265,11 @@
         </is>
       </c>
       <c r="T185" t="inlineStr">
+        <is>
+          <t>Van Donge &amp; De Roo Stadion</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
         <is>
           <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 20, 'R. El Yaakoubi'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 45, 'C. Driouech'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 49, 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 56, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 60, 'B. Vriends']]</t>
         </is>
@@ -17541,6 +18366,11 @@
         </is>
       </c>
       <c r="T186" t="inlineStr">
+        <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 25, 'M. Hilgers'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 34, 'R. Pröpper'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 48, 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 55, 'V. Černý'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 59, 'M. van Ewijk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 90, 'R. Kaib']]</t>
         </is>
@@ -17639,6 +18469,11 @@
         </is>
       </c>
       <c r="T187" t="inlineStr">
+        <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
         <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 59, 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 68, 'K. Bistrović'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 87, 'T. Noslin']]</t>
         </is>
@@ -17740,6 +18575,11 @@
       </c>
       <c r="T188" t="inlineStr">
         <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 88, 'O. Idrissi']]</t>
         </is>
       </c>
@@ -17836,6 +18676,11 @@
         </is>
       </c>
       <c r="T189" t="inlineStr">
+        <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
         <is>
           <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 35, 'J. Bakayoko']]</t>
         </is>
@@ -17935,6 +18780,11 @@
       </c>
       <c r="T190" t="inlineStr">
         <is>
+          <t>Kras Stadion</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 46, 'F. Stanković'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 67, 'B. Benamar'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 88, 'B. Ould-Chikh'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 92, 'D. van Mieghem']]</t>
         </is>
       </c>
@@ -18032,6 +18882,11 @@
       </c>
       <c r="T191" t="inlineStr">
         <is>
+          <t>AFAS Stadion</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
           <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 4, 'J. Karlsson']]</t>
         </is>
       </c>
@@ -18128,6 +18983,11 @@
       </c>
       <c r="T192" t="inlineStr">
         <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
           <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 63, 'O. Romeny'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 71, 'O. Romeny']]</t>
         </is>
       </c>
@@ -18222,6 +19082,11 @@
       </c>
       <c r="T193" t="inlineStr">
         <is>
+          <t>Stadion Feijenoord</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
           <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 12, 'D. van Mieghem'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 52, 'S. Giménez'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 74, 'D. Mirani']]</t>
         </is>
       </c>
@@ -18314,6 +19179,11 @@
         </is>
       </c>
       <c r="T194" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard Stadion</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 67, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 71, 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 77, 'M. Ugalde']]</t>
         </is>
@@ -18408,6 +19278,11 @@
         </is>
       </c>
       <c r="T195" t="inlineStr">
+        <is>
+          <t>Goffertstadion</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
         <is>
           <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 31, 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 48, 'L. Dimata'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 63, 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 67, 'O. Boussaid']]</t>
         </is>
@@ -18506,6 +19381,11 @@
       </c>
       <c r="T196" t="inlineStr">
         <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
           <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 22, 'R. Balk'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 54, 'P. van Aanholt'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 56, 'A. El Ghazi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 61, 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 65, 'Fábio Silva'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 88, 'A. El Ghazi']]</t>
         </is>
       </c>
@@ -18601,6 +19481,11 @@
         </is>
       </c>
       <c r="T197" t="inlineStr">
+        <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
         <is>
           <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 7, 'D. Oroz'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 11, 'A. Verschueren'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 45, 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 87, 'J. Kitolano']]</t>
         </is>
@@ -18699,6 +19584,11 @@
         </is>
       </c>
       <c r="T198" t="inlineStr">
+        <is>
+          <t>Abe Lenstra Stadion</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
         <is>
           <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 10, 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, 'E. Álvarez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 19, 'S. Bergwijn'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 42, 'P. van Amersfoort'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 52, 'K. Taylor'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 79, 'S. van Hooijdonk']]</t>
         </is>
@@ -18804,6 +19694,11 @@
       </c>
       <c r="T199" t="inlineStr">
         <is>
+          <t>Johan Cruijff Arena</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
           <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 5, 'S. Giménez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 17, 'E. Álvarez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 37, 'D. Tadić'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 52, 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 86, 'L. Geertruida']]</t>
         </is>
       </c>
@@ -18897,6 +19792,11 @@
         </is>
       </c>
       <c r="T200" t="inlineStr">
+        <is>
+          <t>De Oude Meerdijk</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
         <is>
           <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 44, 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 89, 'V. van Crooij']]</t>
         </is>
@@ -18996,6 +19896,11 @@
       </c>
       <c r="T201" t="inlineStr">
         <is>
+          <t>Euroborg</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
           <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 27, 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 40, 'S. van Hooijdonk']]</t>
         </is>
       </c>
@@ -19089,6 +19994,11 @@
         </is>
       </c>
       <c r="T202" t="inlineStr">
+        <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
         <is>
           <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 8, 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 11, 'M. Ugalde'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 66, 'J. Karlsson']]</t>
         </is>
@@ -19187,6 +20097,11 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
           <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 41, 'T. Douvikas'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 48, 'O. Edvardsen'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 94, 'W. Willumsson']]</t>
         </is>
       </c>
@@ -19282,6 +20197,11 @@
       </c>
       <c r="T204" t="inlineStr">
         <is>
+          <t>Mandemakers Stadion</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
           <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 18, 'O. Tannane'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 26, 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 31, 'O. Tannane'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 61, 'V. Anita']]</t>
         </is>
       </c>

--- a/opta/data/merged/merged_tournamentschedule.xlsx
+++ b/opta/data/merged/merged_tournamentschedule.xlsx
@@ -2183,7 +2183,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 25, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 49, '723av2redj2ej6livx0g81wwl', 'A. Verschueren', 'YC']]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 27, 'M. Seuntjens', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 82, 'A. Ferati', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 88, 'P. Gladon', 'YC']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 27, 'atbvv2os8m7nfs0p128w5a6l1', 'M. Seuntjens', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 82, '9trasqdd75zjxz4kzplb64xjp', 'A. Ferati', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 88, '3jkzywsfc2vjq3h1kqdhhl2hh', 'P. Gladon', 'YC']]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 6, '3jkzywsfc2vjq3h1kqdhhl2hh', 'P. Gladon'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 48, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 51, '6sg2ot7z9kfyrlgjkmpqvejqi', 'D. Rensch'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 62, '9c2i7ddl2uh7kuhwq62klkyui', 'B. Brobbey'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 87, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz']]</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 48, 'D. Schmidt', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 48, 'C. Driouech', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 68, 'S. Horemans', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 48, 'tv8e6nxc7jl8wbzf6ojd6dw5', 'D. Schmidt', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 48, '6jhavdnaitqn6ydme8a526aui', 'C. Driouech', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 68, '3r6elcuru7no13hrfczmwbmy1', 'S. Horemans', 'YC']]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 10, '36q7nfs7t68aeg3z54rnr31pm', 'M. Azarkan'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 44, 'f07qmqesi1rpw7eapoz9rb0gk', 'J. Baas']]</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 25, 'K. Veendorp', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 25, '6ciggfx8p0zkak8qxe1p7yzth', 'K. Veendorp', 'YC']]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 18, 'J. Bakayoko'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 26, 'M. Kieftenbeld'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 38, 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 54, 'C. Gakpo'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 62, 'O. Romeny']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 18, 'bx6j2y1hnu63lawn3rdoep1m2', 'J. Bakayoko'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 26, '7ytoj5m2j4u50e7pjhz0lr1ed', 'M. Kieftenbeld'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 38, '9psfk94nduz6icnuwty5v9all', 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 54, '9psfk94nduz6icnuwty5v9all', 'C. Gakpo'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 62, '55e0z1vhb48go6y2io7h80aqy', 'O. Romeny']]</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 79, 'Y. Oukili', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 79, 'b23be312oxcbusvpjnnriukq2', 'Y. Oukili', 'YC']]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 15, 'D. Van den Buijs'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 45, 'I. Bel Hassani'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 52, 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 85, 'B. Dost']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 15, 'arahlffwma11d06oqmglwjemt', 'D. Van den Buijs'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 45, '93cf9npj6wl6vrxw7hetf6ok5', 'I. Bel Hassani'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 52, '395y7yj6o1xwr6uaxs4sjnjdh', 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 85, '395y7yj6o1xwr6uaxs4sjnjdh', 'B. Dost']]</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 83, 'B. Benamar', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 83, 'dbkr1w2xlwnyssid1tv0jlujt', 'B. Benamar', 'YC']]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 2, 'C. Ngonge'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 34, 'J. Strand Larsen'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 38, 'D. van Mieghem'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 68, 'B. Benamar']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 2, 'a9z0jsjwfteq974bxwucvc4ix', 'C. Ngonge'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 34, '2ge9oa66xgsefhhpvuboua76x', 'J. Strand Larsen'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 38, '1sb4655mgzrdohlltyk9fqlzp', 'D. van Mieghem'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 68, 'dbkr1w2xlwnyssid1tv0jlujt', 'B. Benamar']]</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 36, 'S. Tronstad', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 40, 'Ferro', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 47, 'S. Szymański', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 36, '4ecptuxoyx485mmhrubuscgyd', 'S. Tronstad', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 40, 'e65zqndnze1xzef4qlkhd1v4l', 'Ferro', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 47, '504o2odlvra056ouwcgreopgp', 'S. Szymański', 'YC']]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 19, 'M. Manhoef'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 31, 'P. Wålemark'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 41, 'Danilo'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 56, 'N. Frederiksen'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 61, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 66, 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 69, 'L. Geertruida']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 19, 'czh4r9efdbw4fvdux0enl127e', 'M. Manhoef'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 31, '1957std7hji9ca7bd29y8at7u', 'P. Wålemark'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 41, '4j5hfebi948ggjwexpndrub1m', 'Danilo'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 56, 'cty7nsrs5yn785m330c2gbwq2', 'N. Frederiksen'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 61, 'dy8wa8cciiae72q2ynm80rlcl', 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 66, '4j5hfebi948ggjwexpndrub1m', 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 69, '4yyekuopwb7otz18rqfgwjht5', 'L. Geertruida']]</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 50, 'M. Sadílek', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 53, 'M. Duelund', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 50, '9qoc020keotb4s72a09zm5pzp', 'M. Sadílek', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 53, '5qvy65ckiigykkowpyco05zv9', 'M. Duelund', 'YC']]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 91, 'S. Steijn']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 91, 'ahwtdhrerarmljk9bh0tcpk6i', 'S. Steijn']]</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 72, 'B. Adekanye', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 80, 'D. de Wit', 'YC']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 72, '7lpwkpwfw656re3pymntslv55', 'B. Adekanye', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 80, '8ymqihdfqc7esda7y407lebx1', 'D. de Wit', 'YC']]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 70, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 86, 'M. van Brederode']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 70, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 86, '1hmy5uxiyr8g915tngl9l8twq', 'M. van Brederode']]</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 97, 'S. Tronstad', 'RC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 97, '4ecptuxoyx485mmhrubuscgyd', 'S. Tronstad', 'RC']]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 14, 'R. Kharchouch'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 20, 'R. Kharchouch'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 29, 'N. Frederiksen'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 76, 'K. Goudmijn']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 14, '5zwa237gtyf2mlrmo7tlkqnoq', 'R. Kharchouch'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 20, '5zwa237gtyf2mlrmo7tlkqnoq', 'R. Kharchouch'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 29, 'cty7nsrs5yn785m330c2gbwq2', 'N. Frederiksen'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 76, 'a46irqckxabod18j2c0qfixre', 'K. Goudmijn']]</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 32, 'M. Deijl', 'RC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 74, 'José Fontán', 'YC']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 32, 'ciguyr553yqapqfudim9af46h', 'M. Deijl', 'RC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 74, '32pfghvfogjnpbgsj5mk2jhpm', 'José Fontán', 'YC']]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 3, 'L. de Jong'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 14, 'I. Lidberg'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 48, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 55, 'A. Obispo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 76, 'X. Simons'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 80, 'O. Edvardsen'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 89, 'J. Veerman']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 3, '4drquvq035kmr2smvzph82bx1', 'L. de Jong'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 14, 'hxqybxg5578sgx0gx5qb834l', 'I. Lidberg'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 48, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 55, '3ojwbw6v83g9b0u2wssnkzzzd', 'A. Obispo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 76, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 80, '7dkhv2l8y6jq20l1dc2ye17je', 'O. Edvardsen'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 89, 'd4j19ipiaeuetyij08fofgs15', 'J. Veerman']]</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 12, 'M. Kramer', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 49, 'M. Araujo', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 48, 'L. Bernadou', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 92, 'J. Veldmate', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 12, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 49, '9fkdgor4mv7f8eqz65ugnnydx', 'M. Araujo', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 48, '49x98sk3wf7sjshrlou5vnvje', 'L. Bernadou', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 92, 'ew4kbwq27lxqocg0920amphw5', 'J. Veldmate', 'YC']]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, 'L. Bernadou'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'Julen Lobete']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, '49x98sk3wf7sjshrlou5vnvje', 'L. Bernadou'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'a0i7hc92p5ijqi4jqw8krh8x6', 'Julen Lobete']]</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 14, 'T. Booth', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 31, 'R. Uldriķis', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 47, 'L. Brouwers', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 86, 'M. van der Maarel', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 14, '28o7vv0jud22hmg4h649yozqh', 'T. Booth', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 31, 'afsin57n25r53ifmqyfmbzqol', 'R. Uldriķis', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 47, 'eu6pfkiah7otafyryg6ll7y09', 'L. Brouwers', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 86, '1s7vp9ovsa1jo7tu7nisykn9x', 'M. van der Maarel', 'YC']]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 48, 'M. Köhlert', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, 'Q. Timber', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 97, 'A. Noppert', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 48, '8wb6zb0imo0295asm428cur55', 'M. Köhlert', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, 'e5xuwwa4qs6zxjd7y52tslih', 'Q. Timber', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 97, 'awih1xkabe5o6afn6d85ilxw5', 'A. Noppert', 'YC']]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 34, 'D. van Mieghem', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 56, 'C. Eiting', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 34, '1sb4655mgzrdohlltyk9fqlzp', 'D. van Mieghem', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 56, 'a21sngx9u0boxf3n6u5qbkdlh', 'C. Eiting', 'YC']]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 11, 'D. van Mieghem'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 17, 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 19, 'O. Tannane'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 76, 'M. Duelund'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 90, 'J. Bruijn']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 11, '1sb4655mgzrdohlltyk9fqlzp', 'D. van Mieghem'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 17, 'cudl1cjc8kxshfbhatms7aooa', 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 19, '6rfm7p5go1lgv6ccdjqgpallh', 'O. Tannane'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 76, '5qvy65ckiigykkowpyco05zv9', 'M. Duelund'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 90, 'brij3tiox17hyfm63ulhg5sr9', 'J. Bruijn']]</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 30, 'D. Tadić', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 30, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić', 'YC']]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 4, 'S. Bergwijn'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 10, 'C. Ngonge'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 28, 'Antony'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 45, 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 57, 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 66, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 88, 'S. Berghuis']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 4, '6hrp4zuxh40i3tccmk5s0j5xx', 'S. Bergwijn'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 10, 'a9z0jsjwfteq974bxwucvc4ix', 'C. Ngonge'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 28, 'v22q59d00b5v78rgx7v8z3vu', 'Antony'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 45, '6hrp4zuxh40i3tccmk5s0j5xx', 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 57, '6hrp4zuxh40i3tccmk5s0j5xx', 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 66, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 88, '7joybllup4h9oe6zfhcepjy6t', 'S. Berghuis']]</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 73, 'Deroy Duarte', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 74, 'R. van Wolfswinkel', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 80, 'M. Seuntjens', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 92, 'B. Yılmaz', 'YC']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 73, '5fnmjp63t7m9fg3y2fcw6z015', 'Deroy Duarte', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 74, '36veg0wk1z3om89daf0clbl5h', 'R. van Wolfswinkel', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 80, 'atbvv2os8m7nfs0p128w5a6l1', 'M. Seuntjens', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 92, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz', 'YC']]</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 22, 'R. van Wolfswinkel'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 44, 'J. Brenet'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 53, 'V. Misidjan']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 22, '36veg0wk1z3om89daf0clbl5h', 'R. van Wolfswinkel'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 44, '6p4fs5rivwt0e45twlsf6ajth', 'J. Brenet'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 53, '3c4l2e3gzgpqrc2ygkbmp0jpx', 'V. Misidjan']]</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 1, 'V. van Crooij'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 46, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, 'D. de Wit'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 59, 'V. van Crooij'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 65, 'M. Kerkez']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 1, '2nwthqvbk70e2qo35dgp35979', 'V. van Crooij'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 46, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, '8ymqihdfqc7esda7y407lebx1', 'D. de Wit'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 59, '2nwthqvbk70e2qo35dgp35979', 'V. van Crooij'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 65, 'a2zavv31d2aadyddk0kjttdgq', 'M. Kerkez']]</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 36, 'A. Tahiri', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 36, 'T. Domgjoni', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 43, 'M. Wittek', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 69, 'T. Haye', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 86, 'M. Bero', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 36, '7m3uhmmzizwmpk64dw750pn11', 'A. Tahiri', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 36, '4snaidw6iaeo0k20gjfm35nft', 'T. Domgjoni', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 43, '5gyjq8tsjxk396qt4hqlwn3dh', 'M. Wittek', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 69, '7jtag81mvpom3bfgezx8txbdh', 'T. Haye', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 86, '4idru0svqcqjpi03b4jhqyd3p', 'M. Bero', 'YC']]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 5, 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 48, 'A. Sarr'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 72, 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 77, 'S. van Hooijdonk']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 5, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 48, 'amvonu36at4dg7ksi1ioczi3u', 'A. Sarr'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 72, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 77, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk']]</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 7, 'M. te Wierik', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 90, 'José Fontán', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 91, 'Y. Kalley', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 95, 'P. Rommens', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 7, 'ait187bpr8we72jvfxxt6ttjp', 'M. te Wierik', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 90, '32pfghvfogjnpbgsj5mk2jhpm', 'José Fontán', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 91, '3hn1o03lxsjzju3uorl6rnpxw', 'Y. Kalley', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 95, 'dtglxu78mwbkvog0jnusmdc5x', 'P. Rommens', 'YC']]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 3, 'J. de Lange']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 3, '4odeml6s5vm38m9u7tnh6n8id', 'J. de Lange']]</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 29, 'B. Plat', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 62, 'B. Ould-Chikh', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 81, 'W. Ould-Chikh', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 29, '8ozlo6qrdavr86guhclwvh84q', 'B. Plat', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 62, '3dc82sro077by40u3qdmhw0r9', 'B. Ould-Chikh', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 81, '8oetnmi8kejwwy37rhlelw2ne', 'W. Ould-Chikh', 'YC']]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 1, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 39, 'C. Gakpo'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 40, 'H. Veerman'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 47, 'B. Plat'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 51, 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 67, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 79, 'J. Bakayoko']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 1, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, '9psfk94nduz6icnuwty5v9all', 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 39, '9psfk94nduz6icnuwty5v9all', 'C. Gakpo'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 40, 'c5jk0pvcvqddy0xiqv6qkesph', 'H. Veerman'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 47, '8ozlo6qrdavr86guhclwvh84q', 'B. Plat'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 51, '9psfk94nduz6icnuwty5v9all', 'C. Gakpo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 67, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 79, 'bx6j2y1hnu63lawn3rdoep1m2', 'J. Bakayoko']]</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 31, 'D. de Wit', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 93, 'Pedro Marques', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 94, 'J. Bruijn', 'YC']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 31, '8ymqihdfqc7esda7y407lebx1', 'D. de Wit', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 93, '55njsqpc4izy2wogf188whtrd', 'Pedro Marques', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 94, 'brij3tiox17hyfm63ulhg5sr9', 'J. Bruijn', 'YC']]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 54, 'Iván Márquez'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, 'J. Odgaard']]</t>
+          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 54, '570htztcvfsu947xw6fvtzmc5', 'Iván Márquez'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, '1t7nph4960rjzu7rgi47sf8ix', 'J. Odgaard']]</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 14, 'J. de Guzmán', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 32, 'E. Álvarez', 'YC']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 14, '6w59kdfilru1152bjutstu2fp', 'J. de Guzmán', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 32, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez', 'YC']]</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 37, 'S. Bergwijn']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 37, '6hrp4zuxh40i3tccmk5s0j5xx', 'S. Bergwijn']]</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 27, 'I. Bel Hassani', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'J. Gaari', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 27, '93cf9npj6wl6vrxw7hetf6ok5', 'I. Bel Hassani', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, '9787nemt11c372uird332d13p', 'J. Gaari', 'YC']]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 68, 'Danilo']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 68, '4j5hfebi948ggjwexpndrub1m', 'Danilo']]</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 58, 'T. Suslov', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 63, 'O. Tannane', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 63, 'N. Kasanwirjo', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 93, 'E. Tavşan', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 58, '4t85yj2ijymrz5vf457jcihre', 'T. Suslov', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 63, '6rfm7p5go1lgv6ccdjqgpallh', 'O. Tannane', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 63, '2fbolmn7pyvn5oto4zoeqguwa', 'N. Kasanwirjo', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 93, 'cudl1cjc8kxshfbhatms7aooa', 'E. Tavşan', 'YC']]</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 75, 'L. Duarte'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, 'I. Cissoko']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 75, 'ebrua3sixxfvycsty8z956ga1', 'L. Duarte'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, '4fiks6jvfxzbs9k0s050vmfbo', 'I. Cissoko']]</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 56, 'R. Fernandes', 'RC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 57, 'S. Sambo', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 88, 'M. Pinto', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 92, 'J. Bakker', 'YC']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 56, '7sa0cx70w7dc0ahu5sm0ziz11', 'R. Fernandes', 'RC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 57, 'f57vs3qmmob743hdk2dxf56cq', 'S. Sambo', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 88, '5el82g04yvl9ai8ws8pxbvaad', 'M. Pinto', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 92, 'aq8emkcjejbav0fys17iqv2ll', 'J. Bakker', 'YC']]</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 18, 'T. Lauritsen']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 18, '6q77vt9bp8dsq48pa97mfzsa1', 'T. Lauritsen']]</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 45, 'Y. Oukili', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 73, 'R. Yapi', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 45, 'b23be312oxcbusvpjnnriukq2', 'Y. Oukili', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 73, '1txv3b9y7h3du9d5bbblg0vai', 'R. Yapi', 'YC']]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 35, 'F. Jozefzoon'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 50, 'I. Bel Hassani'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 61, 'M. Bero'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 71, 'R. Flamingo']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 35, 'b1o6ctqy1mhjg4iiec8aedat', 'F. Jozefzoon'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 50, '93cf9npj6wl6vrxw7hetf6ok5', 'I. Bel Hassani'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 61, '4idru0svqcqjpi03b4jhqyd3p', 'M. Bero'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 71, 'cgsmk5437f466uoqvol7devze', 'R. Flamingo']]</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 60, 'Q. Timber'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 85, 'S. Giménez'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 88, 'J. Rasmussen'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 92, 'S. Szymański']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 60, 'e5xuwwa4qs6zxjd7y52tslih', 'Q. Timber'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 85, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 88, 'bnar4f48vnx4oaz2lzch48es5', 'J. Rasmussen'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 92, '504o2odlvra056ouwcgreopgp', 'S. Szymański']]</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 83, 'J. van Aken', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 91, 'B. Yılmaz', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 83, 'axgbibg0wdlir6tsrru6rpwph', 'J. van Aken', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 91, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz', 'YC']]</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 22, 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 44, 'M. van Ewijk'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, 'B. Yılmaz']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 22, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 44, 'etzj9ltadjsvkmahib7hor90q', 'M. van Ewijk'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz']]</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 35, 'J. Timber', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 36, 'D. Rensch', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 54, 'O. Boussaid', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 70, 'D. Tadić', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 88, 'B. Dost', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 35, 'aqlakf0mo95rlktf6xdbaegh5', 'J. Timber', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 36, '6sg2ot7z9kfyrlgjkmpqvejqi', 'D. Rensch', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 54, '3mp92d5s002hi523kl4zmgrft', 'O. Boussaid', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 70, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 88, '395y7yj6o1xwr6uaxs4sjnjdh', 'B. Dost', 'YC']]</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 10, 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 46, 'B. Brobbey']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 10, '7joybllup4h9oe6zfhcepjy6t', 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 46, '9c2i7ddl2uh7kuhwq62klkyui', 'B. Brobbey']]</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 68, 'G. Til', 'YC']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 68, '21k54i5a6d9bi4f6gplgzxiw9', 'G. Til', 'YC']]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 2, 'J. Veerman'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 29, 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 45, 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 55, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 59, 'C. Gakpo'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 74, 'S. Horemans'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 84, 'X. Simons']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 2, 'd4j19ipiaeuetyij08fofgs15', 'J. Veerman'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 29, '1abb1gcw7arw1nkbuxnccjca1', 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 45, '1abb1gcw7arw1nkbuxnccjca1', 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 55, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 59, '9psfk94nduz6icnuwty5v9all', 'C. Gakpo'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 74, '3r6elcuru7no13hrfczmwbmy1', 'S. Horemans'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 84, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons']]</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 45, 'A. Douiri', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 61, 'D. van Mieghem', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 45, 'eayvrkzzkk0xu4c5rrxgzlroq', 'A. Douiri', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 61, '1sb4655mgzrdohlltyk9fqlzp', 'D. van Mieghem', 'YC']]</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 83, 'L. Zeefuik']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 83, '792zq4joba1qgt0lusvrjantg', 'L. Zeefuik']]</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 12, 'M. Kerkez', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 23, 'M. Paulissen', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 55, 'J. Jacobs', 'RC']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 12, 'a2zavv31d2aadyddk0kjttdgq', 'M. Kerkez', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 23, '426st78oi43eortpbfkuxw72t', 'M. Paulissen', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 55, '9wgpudcet9m8doz9ezbjxzkrt', 'J. Jacobs', 'RC']]</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 90, 'J. Clasie']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 90, '7jgtmmk4b2bgn0syidj6ve7kl', 'J. Clasie']]</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 1, 'D. Cleonise'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 8, 'C. Tzolis'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 62, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 93, 'V. Černý']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 1, '3940jh5ermawu3vbzbei6546i', 'D. Cleonise'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 8, 'acffs01m2p3b4uemzjrp51d9m', 'C. Tzolis'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 62, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 93, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý']]</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 71, 'M. Tirpan', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 81, 'J. Toornstra', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 83, 'M. van der Maarel', 'YC']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 71, '4e6yz7j1xjd7b6oyv078q8edx', 'M. Tirpan', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 81, 'ely6vpyueden4b6ozfmspwgk5', 'J. Toornstra', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 83, '1s7vp9ovsa1jo7tu7nisykn9x', 'M. van der Maarel', 'YC']]</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 64, 'B. Dost'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 67, 'Rodrigo Guth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 70, 'T. Douvikas'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 77, 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 82, 'B. Yılmaz'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 86, 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 97, 'T. Noslin']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 64, '395y7yj6o1xwr6uaxs4sjnjdh', 'B. Dost'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 67, '9fpb7g8ij9dqtuqhnimy5fap5', 'Rodrigo Guth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 70, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 77, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 82, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 86, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 97, '71gwdg60saiwwwnnv6is52may', 'T. Noslin']]</t>
         </is>
       </c>
     </row>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 44, 'E. Álvarez', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 44, 'M. Paulissen', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 44, 'R. Balk', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 44, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 44, '426st78oi43eortpbfkuxw72t', 'M. Paulissen', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 44, 'e1wk520xrgbtriixo4kj3pnje', 'R. Balk', 'YC']]</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 35, 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 40, 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 53, 'D. Rensch'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, 'M. Kudus']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 35, '6hrp4zuxh40i3tccmk5s0j5xx', 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 40, '6hrp4zuxh40i3tccmk5s0j5xx', 'S. Bergwijn'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 53, '6sg2ot7z9kfyrlgjkmpqvejqi', 'D. Rensch'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus']]</t>
         </is>
       </c>
     </row>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 27, 'R. Pröpper', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 74, 'P. Max', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 76, 'I. Sangaré', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 27, 'lduqoe45t2fnbn9s9rbvlnf9', 'R. Pröpper', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 74, '5mbkc1nqmirbtfml9aklqr5xx', 'P. Max', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 76, '1abb1gcw7arw1nkbuxnccjca1', 'I. Sangaré', 'YC']]</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 17, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 24, 'V. Černý'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 55, 'G. Til']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 17, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 24, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 55, '21k54i5a6d9bi4f6gplgzxiw9', 'G. Til']]</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 14, 'V. van Crooij'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 68, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 72, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 85, 'S. Mijnans']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 14, '2nwthqvbk70e2qo35dgp35979', 'V. van Crooij'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 68, '6q77vt9bp8dsq48pa97mfzsa1', 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 72, '6q77vt9bp8dsq48pa97mfzsa1', 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 85, '7jpreaads35pnnfqbn7hmrmy', 'S. Mijnans']]</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 3, 'P. Wålemark'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 13, 'I. Lidberg'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 24, 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 42, 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 56, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, 'S. Szymański'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 96, 'O. Edvardsen']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 3, '1957std7hji9ca7bd29y8at7u', 'P. Wålemark'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 13, 'hxqybxg5578sgx0gx5qb834l', 'I. Lidberg'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 24, '4j5hfebi948ggjwexpndrub1m', 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 42, '4j5hfebi948ggjwexpndrub1m', 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 56, 'dy8wa8cciiae72q2ynm80rlcl', 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, '504o2odlvra056ouwcgreopgp', 'S. Szymański'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 96, '7dkhv2l8y6jq20l1dc2ye17je', 'O. Edvardsen']]</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 49, 'J. Gaari', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 81, 'J. Eijgenraam', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 49, '9787nemt11c372uird332d13p', 'J. Gaari', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 81, '9aj2e1c30c8i3h6iff0k4dmac', 'J. Eijgenraam', 'YC']]</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 15, 'J. Baas'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 38, 'S. Adewoye'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 43, 'R. El Yaakoubi'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 50, 'P. Clement'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 60, 'T. Lutonda'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 80, 'V. Anita'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 91, 'M. Kramer']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 15, 'f07qmqesi1rpw7eapoz9rb0gk', 'J. Baas'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 38, '8przxwwothu3crflys7ahl4dm', 'S. Adewoye'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 43, '934ldgpefo90za10cq49k0o6i', 'R. El Yaakoubi'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 50, 'dbg4ducw8j747foxiexle1iad', 'P. Clement'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 60, '181us5vol7crxrmejhkqau3t', 'T. Lutonda'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 80, 'evexihkozqignope6k57tjgt1', 'V. Anita'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 91, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer']]</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 5, 'H. Evjen', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 80, 'S. Beukema', 'YC']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 5, 'b2ibeioms7t9vb3au7tpqys4p', 'H. Evjen', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 80, '42cg746sa90jla5x4islj9pwq', 'S. Beukema', 'YC']]</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 21, 'J. Odgaard'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 27, 'D. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 34, 'T. Reijnders']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 21, '1t7nph4960rjzu7rgi47sf8ix', 'J. Odgaard'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 27, '8ymqihdfqc7esda7y407lebx1', 'D. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 34, '2w7xspkzg7b9ghl20me202ove', 'T. Reijnders']]</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 62, 'T. Halilović', 'RC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 79, 'T. Haye', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 87, 'S. El Karouani', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 62, 'aie09n600h7ozeg6zl6anithx', 'T. Halilović', 'RC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 79, '7jtag81mvpom3bfgezx8txbdh', 'T. Haye', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 87, 'enimk3ibb10vk3f8vrmmhq7oq', 'S. El Karouani', 'YC']]</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 79, 'L. Valente', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 82, 'R. Flamingo', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 92, 'C. Arcus', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 79, '29fr98or3mqippn84z3p9ihhw', 'L. Valente', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 82, 'cgsmk5437f466uoqvol7devze', 'R. Flamingo', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 92, 'd3qx3gwypipcl2azrj9ing9ud', 'C. Arcus', 'YC']]</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 77, 'M. Bero']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 77, '4idru0svqcqjpi03b4jhqyd3p', 'M. Bero']]</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 32, 'J. de Lange', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 44, 'J. Idzes', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 44, 'B. Benamar', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 64, 'G. Oristanio', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 65, 'E. Linthorst', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 86, 'D. Murkin', 'YC']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 32, '4odeml6s5vm38m9u7tnh6n8id', 'J. de Lange', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 44, '7nfr8xuo637qma7ovxx4r9fmy', 'J. Idzes', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 44, 'dbkr1w2xlwnyssid1tv0jlujt', 'B. Benamar', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 64, '3kbhgmnf6bhfgut0jxf4m2sfe', 'G. Oristanio', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 65, '9d4lofwg9ooaoldw2vpt4h36y', 'E. Linthorst', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 86, 'a02jtmvlc1tlstvt96pa1hisq', 'D. Murkin', 'YC']]</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 23, 'B. Adekanye'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 31, 'C. Eiting'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 77, 'B. Kuipers'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 82, 'B. Kuipers'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 97, 'R. Mühren']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 23, '7lpwkpwfw656re3pymntslv55', 'B. Adekanye'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 31, 'a21sngx9u0boxf3n6u5qbkdlh', 'C. Eiting'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 77, '6ydojoa3581jgszpjqj7i8zpx', 'B. Kuipers'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 82, '6ydojoa3581jgszpjqj7i8zpx', 'B. Kuipers'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 97, '6jqn5grsuhuo5at81pzahr6xh', 'R. Mühren']]</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 71, 'O. Özyakup'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 95, 'Pedro Marques']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 71, 'bznrsqachpfr9l2wnfjy8samt', 'O. Özyakup'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 95, '55njsqpc4izy2wogf188whtrd', 'Pedro Marques']]</t>
         </is>
       </c>
     </row>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 15, 'S. van Beek', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 45, 'E. Álvarez', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 71, 'P. Bochniewicz', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 15, '9hvw1v4douz0kst032a9l853p', 'S. van Beek', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 45, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 71, '1tj9gmnm02s8f12zwzvuwnoph', 'P. Bochniewicz', 'YC']]</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 4, 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 48, 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 59, 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 70, 'B. Brobbey']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 4, 'baakmd4ndnulbl9npvmq90mvp', 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 48, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 59, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 70, '9c2i7ddl2uh7kuhwq62klkyui', 'B. Brobbey']]</t>
         </is>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 24, 'Rui Mendes', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, 'J. Vlak', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 67, 'A. Fein', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 24, 'ewbakrn2dqmy062scjnz0pecp', 'Rui Mendes', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, 'cqrk42u0s5w8yuq6mnckug02y', 'J. Vlak', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 67, '1wf757j0e3v3bdpbc9z2tav3d', 'A. Fein', 'YC']]</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 45, 'O. Romeny'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 61, 'N. Tjoe-A-On'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 95, 'S. Seymor']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 45, '55e0z1vhb48go6y2io7h80aqy', 'O. Romeny'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 61, '6db1q8hud1d8u2q3lxzfixzze', 'N. Tjoe-A-On'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 95, '8znaym62oghri26gdn8o6fz84', 'S. Seymor']]</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 23, 'J. Gaari', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 45, 'S. Adewoye', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 64, 'É. Gutiérrez', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 74, 'D. Van den Buijs', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 85, 'M. Kramer', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 94, 'E. Vaessen', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 23, '9787nemt11c372uird332d13p', 'J. Gaari', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 45, '8przxwwothu3crflys7ahl4dm', 'S. Adewoye', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 64, '9uuk73i8obc7ji0dnan352nkl', 'É. Gutiérrez', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 74, 'arahlffwma11d06oqmglwjemt', 'D. Van den Buijs', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 85, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 94, '7wo4627xo1mx5k0vpwhe8hqll', 'E. Vaessen', 'YC']]</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 96, 'C. Gakpo']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 96, '9psfk94nduz6icnuwty5v9all', 'C. Gakpo']]</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 79, 'M. Wittek', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 79, '5gyjq8tsjxk396qt4hqlwn3dh', 'M. Wittek', 'YC']]</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'B. Dost']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, '395y7yj6o1xwr6uaxs4sjnjdh', 'B. Dost']]</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 19, 'R. Balk', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 64, 'T. Suslov', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 75, 'M. Breij', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 75, 'M. Šverko', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 89, 'D. Dankerlui', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 97, 'D. Irandust', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 19, 'e1wk520xrgbtriixo4kj3pnje', 'R. Balk', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 64, '4t85yj2ijymrz5vf457jcihre', 'T. Suslov', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 75, 'ae7ij4u0xy9iru6qvdw2i9fu2', 'M. Breij', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 75, '8r87vw2cxrsal257e9v7jicx5', 'M. Šverko', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 89, 'brqptr56zeku3bgqbixje0hxx', 'D. Dankerlui', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 97, 'ci5y030e6r9umgyjbupwske7d', 'D. Irandust', 'YC']]</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 71, 'T. Suslov']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 71, '4t85yj2ijymrz5vf457jcihre', 'T. Suslov']]</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 5, 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 35, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 73, 'S. Giménez']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 5, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 35, 'dy8wa8cciiae72q2ynm80rlcl', 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 73, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez']]</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 40, 'D. van der Kust', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 71, 'C. Bozdoğan', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 73, 'L. Schöne', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 90, 'O. Boussaid', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 40, '6lyedmu2vuf7jig3jmhz9b4ve', 'D. van der Kust', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 71, 'b33sm106xc7g3h4bcqtawja7e', 'C. Bozdoğan', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 73, '9p6nlczeycd0ai4dahjxnf8ph', 'L. Schöne', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 90, '3mp92d5s002hi523kl4zmgrft', 'O. Boussaid', 'YC']]</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 28, 'R. Balker', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 79, 'M. Šverko', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 84, 'M. Verrips', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 28, '9zcr9l3mfbbstmesdlx298vhm', 'R. Balker', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 79, '8r87vw2cxrsal257e9v7jicx5', 'M. Šverko', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 84, 'dxcsuw39xzusjsj5e1jw53y6t', 'M. Verrips', 'YC']]</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 61, 'R. Pepi'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 73, 'S. Mijnans'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 90, 'V. van Crooij']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 61, 'emglxnqrlqskt8krglv7sziwa', 'R. Pepi'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 73, '7jpreaads35pnnfqbn7hmrmy', 'S. Mijnans'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 90, '2nwthqvbk70e2qo35dgp35979', 'V. van Crooij']]</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 62, 'F. Stanković', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 62, 'B. Białek', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 78, 'E. Cornelisse', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 62, '7dg8woqlx67ch0ji3ujhgb52i', 'F. Stanković', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 62, '9bzwr8qhl6547tjrsjsity4x6', 'B. Białek', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 78, 'eqjelc731e1xrp95bpysx0pka', 'E. Cornelisse', 'YC']]</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 21, 'R. Mühren'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 48, 'B. Białek']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 21, '6jqn5grsuhuo5at81pzahr6xh', 'R. Mühren'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 48, '9bzwr8qhl6547tjrsjsity4x6', 'B. Białek']]</t>
         </is>
       </c>
     </row>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 17, 'J. Jacobs'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 32, 'M. Kramer'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 77, 'M. Tol'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 82, 'Z. Bakkali'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 86, 'I. Bel Hassani'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'M. Kramer']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 17, '9wgpudcet9m8doz9ezbjxzkrt', 'J. Jacobs'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 32, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 77, '8ylvnl689iweg2r9d0ioj771m', 'M. Tol'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 82, 'csov8ibh2n0q2w8j72pft9t5h', 'Z. Bakkali'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 86, '93cf9npj6wl6vrxw7hetf6ok5', 'I. Bel Hassani'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer']]</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 47, 'Y. Ayoub', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 66, 'M. Seuntjens', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 77, 'M. Seuntjens', 'Y2C'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 78, 'B. Yılmaz', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 84, 'J. Eijgenraam', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 90, 'R. Kharchouch', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 93, 'I. Pandur', 'YC']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 47, '11iegkg0xuow3r11hx5t1o1xx', 'Y. Ayoub', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 66, 'atbvv2os8m7nfs0p128w5a6l1', 'M. Seuntjens', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 77, 'atbvv2os8m7nfs0p128w5a6l1', 'M. Seuntjens', 'Y2C'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 78, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 84, '9aj2e1c30c8i3h6iff0k4dmac', 'J. Eijgenraam', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 90, '5zwa237gtyf2mlrmo7tlkqnoq', 'R. Kharchouch', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 93, '5gnywqecwvt5yxied85hu4x2i', 'I. Pandur', 'YC']]</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 87, 'R. Vita']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 87, '6o2tffdjtdueojbhahe3w66i2', 'R. Vita']]</t>
         </is>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 46, 'K. Veendorp', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 64, 'E. Linthorst', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 76, 'L. Bernadou', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 94, 'J. Amofa', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 46, '6ciggfx8p0zkak8qxe1p7yzth', 'K. Veendorp', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 64, '9d4lofwg9ooaoldw2vpt4h36y', 'E. Linthorst', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 76, '49x98sk3wf7sjshrlou5vnvje', 'L. Bernadou', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 94, '90vny1388bdhx8103lp9njac4', 'J. Amofa', 'YC']]</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 31, 'O. Edvardsen'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 57, 'O. Edvardsen']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 31, '7dkhv2l8y6jq20l1dc2ye17je', 'O. Edvardsen'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 57, '7dkhv2l8y6jq20l1dc2ye17je', 'O. Edvardsen']]</t>
         </is>
       </c>
     </row>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 14, 'G. Smal', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 15, 'R. Pröpper', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 55, 'A. Tahiri', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 79, 'R. Kaib', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 96, 'S. van Ottele', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 14, 'dtcvzfse83ztj96kiizwp6jqi', 'G. Smal', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 15, 'lduqoe45t2fnbn9s9rbvlnf9', 'R. Pröpper', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 55, '7m3uhmmzizwmpk64dw750pn11', 'A. Tahiri', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 79, '9hybzhhut4ac2xinqk7kzzpwp', 'R. Kaib', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 96, '34258m1cvslz8r6d17nv4b90q', 'S. van Ottele', 'YC']]</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 2, 'V. Misidjan'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 28, 'M. van Ewijk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 36, 'P. Bochniewicz']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 2, '3c4l2e3gzgpqrc2ygkbmp0jpx', 'V. Misidjan'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 28, 'etzj9ltadjsvkmahib7hor90q', 'M. van Ewijk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 36, '1tj9gmnm02s8f12zwzvuwnoph', 'P. Bochniewicz']]</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 62, 'G. Til', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 78, 'O. Kökçü', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 95, 'J. Bakayoko', 'YC']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 62, '21k54i5a6d9bi4f6gplgzxiw9', 'G. Til', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 78, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 95, 'bx6j2y1hnu63lawn3rdoep1m2', 'J. Bakayoko', 'YC']]</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 3, 'O. Idrissi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 16, 'J. Branthwaite'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, 'C. Gakpo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 42, 'Danilo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 47, 'G. Til'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 73, 'O. Kökçü'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 83, 'A. Obispo']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 3, 'a89554tzfy4nfxrycpr2z0xjp', 'O. Idrissi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 16, '1ph4g125dfsijfjzjpcvpcmlm', 'J. Branthwaite'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, '9psfk94nduz6icnuwty5v9all', 'C. Gakpo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 42, '4j5hfebi948ggjwexpndrub1m', 'Danilo'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 47, '21k54i5a6d9bi4f6gplgzxiw9', 'G. Til'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 73, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 83, '3ojwbw6v83g9b0u2wssnkzzzd', 'A. Obispo']]</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 26, 'K. Taylor', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 42, 'M. Kerkez', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 49, 'J. Odgaard', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 77, 'E. Álvarez', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 87, 'T. Reijnders', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 26, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 42, 'a2zavv31d2aadyddk0kjttdgq', 'M. Kerkez', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 49, '1t7nph4960rjzu7rgi47sf8ix', 'J. Odgaard', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 77, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 87, '2w7xspkzg7b9ghl20me202ove', 'T. Reijnders', 'YC']]</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 12, 'M. Kudus'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 40, 'M. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 51, 'J. Odgaard']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 12, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 40, '3uq3lrjyj4mnvq6162b0jyhnt', 'M. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 51, '1t7nph4960rjzu7rgi47sf8ix', 'J. Odgaard']]</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 84, 'D. Reiziger', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 90, 'Francisco Conceição', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 84, '3hhca66jtxt3c1iw10nfmhtnu', 'D. Reiziger', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 90, '2x44f29a52v8kpkkjsuiiywdm', 'Francisco Conceição', 'YC']]</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 6, 'D. Tadić'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 25, 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 74, 'M. Manhoef'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 79, 'L. Lucca']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 6, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 25, 'czh4r9efdbw4fvdux0enl127e', 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 74, 'czh4r9efdbw4fvdux0enl127e', 'M. Manhoef'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 79, '6w6ewzxircqxk6dsrs1rvc8ru', 'L. Lucca']]</t>
         </is>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 45, 'G. Trauner', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 78, 'P. Wålemark', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 78, 'C. Mac-Intosch', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 92, 'O. Kökçü', 'YC']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 45, '5bjdj7hrhuxjbsa8wc1kw42c5', 'G. Trauner', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 78, '1957std7hji9ca7bd29y8at7u', 'P. Wålemark', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 78, '4736oz9r0evpmkd3qumivl239', 'C. Mac-Intosch', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 92, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü', 'YC']]</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 4, 'Q. Hartman']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 4, '4fcjml5xkrwp4jykruzrzub1m', 'Q. Hartman']]</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 76, 'T. Boere', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 76, 'cgsirikez39wlx8lhu1uo00yd', 'T. Boere', 'YC']]</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 44, 'L. Schöne']]</t>
+          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 44, '9p6nlczeycd0ai4dahjxnf8ph', 'L. Schöne']]</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 7, 'S. Tronstad', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 7, '4ecptuxoyx485mmhrubuscgyd', 'S. Tronstad', 'YC']]</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 69, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 72, 'S. Mijnans'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 88, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 91, 'A. Verschueren']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 69, '6q77vt9bp8dsq48pa97mfzsa1', 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 72, '7jpreaads35pnnfqbn7hmrmy', 'S. Mijnans'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 88, '6q77vt9bp8dsq48pa97mfzsa1', 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 91, '723av2redj2ej6livx0g81wwl', 'A. Verschueren']]</t>
         </is>
       </c>
     </row>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 22, 'V. Anita', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 65, 'J. Clasie', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 83, 'M. de Wit', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 96, 'J. Karlsson', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 22, 'evexihkozqignope6k57tjgt1', 'V. Anita', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 65, '7jgtmmk4b2bgn0syidj6ve7kl', 'J. Clasie', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 83, '3uq3lrjyj4mnvq6162b0jyhnt', 'M. de Wit', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 96, '33yauarx84sam5u05vgyqxfxl', 'J. Karlsson', 'YC']]</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 9, 'J. Karlsson'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 32, 'I. Bel Hassani'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 87, 'Z. Bakkali'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 92, 'Z. Bakkali']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 9, '33yauarx84sam5u05vgyqxfxl', 'J. Karlsson'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 32, '93cf9npj6wl6vrxw7hetf6ok5', 'I. Bel Hassani'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 87, 'csov8ibh2n0q2w8j72pft9t5h', 'Z. Bakkali'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 92, 'csov8ibh2n0q2w8j72pft9t5h', 'Z. Bakkali']]</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 44, 'L. Burnet', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 85, 'Rodrigo Guth', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 91, 'D. Erdoğan', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 44, '57wfg8j12hfw3aisrnwtpgmvp', 'L. Burnet', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 85, '9fpb7g8ij9dqtuqhnimy5fap5', 'Rodrigo Guth', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 91, 'cozhhgt0jbcuu4wdxf1pwjkyd', 'D. Erdoğan', 'YC']]</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, 'R. Živković']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, '7wphtxp293kv4o3x1b6zusrmd', 'R. Živković']]</t>
         </is>
       </c>
     </row>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 34, 'A. Obispo', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 34, 'E. Álvarez', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 63, 'L. de Jong', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 71, 'S. Berghuis', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 88, 'G. Til', 'YC']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 34, '3ojwbw6v83g9b0u2wssnkzzzd', 'A. Obispo', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 34, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 63, '4drquvq035kmr2smvzph82bx1', 'L. de Jong', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 71, '7joybllup4h9oe6zfhcepjy6t', 'S. Berghuis', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 88, '21k54i5a6d9bi4f6gplgzxiw9', 'G. Til', 'YC']]</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 23, 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 50, 'É. Gutiérrez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 83, 'L. Lucca']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 23, '4drquvq035kmr2smvzph82bx1', 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 50, '9uuk73i8obc7ji0dnan352nkl', 'É. Gutiérrez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 83, '6w6ewzxircqxk6dsrs1rvc8ru', 'L. Lucca']]</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 96, 'A. Colassin', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 96, '3hpv677ua2y88yx55iujzqpgq', 'A. Colassin', 'YC']]</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 58, 'M. van Ewijk']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 58, 'etzj9ltadjsvkmahib7hor90q', 'M. van Ewijk']]</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 18, 'M. Hilgers', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 37, 'B. Adekanye', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 46, 'R. Pröpper', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 86, 'F. Stokkers', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 91, 'L. Everink', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 92, 'R. Zerrouki', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 18, '69cvlhfo7ulmz4o5ztlj1wlm2', 'M. Hilgers', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 37, '7lpwkpwfw656re3pymntslv55', 'B. Adekanye', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 46, 'lduqoe45t2fnbn9s9rbvlnf9', 'R. Pröpper', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 86, '94b7i139jyk6hs6ioqlztg1jp', 'F. Stokkers', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 91, 'dzehnxim5noolef8c7j4d8a5m', 'L. Everink', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 92, 'dc119ejc7lls2rd3ywigl2smi', 'R. Zerrouki', 'YC']]</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 34, 'R. van Wolfswinkel'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 92, 'W. Willumsson']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 34, '36veg0wk1z3om89daf0clbl5h', 'R. van Wolfswinkel'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 92, '5dbx86ca2t7dae8b3t69atii1', 'W. Willumsson']]</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 46, 'S. Klaiber', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 46, 'L. Valente', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 67, 'M. Sagnan', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 79, 'T. Booth', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 46, '6anvl82jyio52wo87cbxdp4np', 'S. Klaiber', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 46, '29fr98or3mqippn84z3p9ihhw', 'L. Valente', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 67, '8p47d0e54hgl7d86vur1m5nmx', 'M. Sagnan', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 79, '28o7vv0jud22hmg4h649yozqh', 'T. Booth', 'YC']]</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 40, 'F. Krüger'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 62, 'T. Booth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'S. van de Streek']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 40, '4k9shzwgauyy7w2911uev75yh', 'F. Krüger'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 62, '28o7vv0jud22hmg4h649yozqh', 'T. Booth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, '4rp5snknt88bf4lws5t0o9gph', 'S. van de Streek']]</t>
         </is>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 38, 'B. Plat', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 38, 'Q. Hartman', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 88, 'B. Ould-Chikh', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 95, 'G. Trauner', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 38, '8ozlo6qrdavr86guhclwvh84q', 'B. Plat', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 38, '4fcjml5xkrwp4jykruzrzub1m', 'Q. Hartman', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 88, '3dc82sro077by40u3qdmhw0r9', 'B. Ould-Chikh', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 95, '5bjdj7hrhuxjbsa8wc1kw42c5', 'G. Trauner', 'YC']]</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 16, 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 43, 'S. Szymański']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 16, '4j5hfebi948ggjwexpndrub1m', 'Danilo'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 43, '504o2odlvra056ouwcgreopgp', 'S. Szymański']]</t>
         </is>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 45, 'R. Pepi'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 78, 'P. Gladon'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, 'P. Gladon'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 91, 'F. Krüger'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 95, 'T. Noslin']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 45, 'emglxnqrlqskt8krglv7sziwa', 'R. Pepi'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 78, '3jkzywsfc2vjq3h1kqdhhl2hh', 'P. Gladon'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, '3jkzywsfc2vjq3h1kqdhhl2hh', 'P. Gladon'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 91, '4k9shzwgauyy7w2911uev75yh', 'F. Krüger'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 95, '71gwdg60saiwwwnnv6is52may', 'T. Noslin']]</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 52, 'S. van de Streek', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 57, 'L. Zeefuik', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 52, '4rp5snknt88bf4lws5t0o9gph', 'S. van de Streek', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 57, '792zq4joba1qgt0lusvrjantg', 'L. Zeefuik', 'YC']]</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 14, 'T. Booth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 73, 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'S. van de Streek'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 92, 'C. Bozdoğan']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 14, '28o7vv0jud22hmg4h649yozqh', 'T. Booth'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 73, '395y7yj6o1xwr6uaxs4sjnjdh', 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, '4rp5snknt88bf4lws5t0o9gph', 'S. van de Streek'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 92, 'b33sm106xc7g3h4bcqtawja7e', 'C. Bozdoğan']]</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 33, 'S. van Beek', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 33, 'S. van Hooijdonk', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 38, 'L. Bergsma', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 82, 'A. Tahiri', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 90, 'A. Bangura', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 33, '9hvw1v4douz0kst032a9l853p', 'S. van Beek', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 33, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 38, '7r2ifipuieqiar5n00o2j5uj9', 'L. Bergsma', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 82, '7m3uhmmzizwmpk64dw750pn11', 'A. Tahiri', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 90, '3u2783a9ukglf8yg3dere8wve', 'A. Bangura', 'YC']]</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 10, 'J. Jacobs'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 36, 'A. Sarr'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 81, 'A. Tahiri']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 10, '9wgpudcet9m8doz9ezbjxzkrt', 'J. Jacobs'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 36, 'amvonu36at4dg7ksi1ioczi3u', 'A. Sarr'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 81, '7m3uhmmzizwmpk64dw750pn11', 'A. Tahiri']]</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 60, 'A. Verschueren', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 62, 'J. van Mullem', 'YC']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 60, '723av2redj2ej6livx0g81wwl', 'A. Verschueren', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 62, '6ovzd9akutufagsd8kmxmsei2', 'J. van Mullem', 'YC']]</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 63, 'S. Steijn'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 71, 'A. Verschueren']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 63, 'ahwtdhrerarmljk9bh0tcpk6i', 'S. Steijn'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 71, '723av2redj2ej6livx0g81wwl', 'A. Verschueren']]</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 11, 'I. Bel Hassani', 'RC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 36, 'S. El Karouani', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 58, 'J. Gaari', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 91, 'V. Anita', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 11, '93cf9npj6wl6vrxw7hetf6ok5', 'I. Bel Hassani', 'RC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 36, 'enimk3ibb10vk3f8vrmmhq7oq', 'S. El Karouani', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 58, '9787nemt11c372uird332d13p', 'J. Gaari', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 91, 'evexihkozqignope6k57tjgt1', 'V. Anita', 'YC']]</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 4, 'D. Van den Buijs'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 38, 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 50, 'S. El Karouani'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 73, 'M. Mattsson'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 78, 'Pedro Marques'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 92, 'Pedro Marques']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 4, 'arahlffwma11d06oqmglwjemt', 'D. Van den Buijs'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 38, '76n4eg1xu5qvf9bkwy4p8jsut', 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 50, 'enimk3ibb10vk3f8vrmmhq7oq', 'S. El Karouani'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 73, '8inyievyp1az6q3dtlkpynf56', 'M. Mattsson'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 78, '55njsqpc4izy2wogf188whtrd', 'Pedro Marques'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, 'cudl1cjc8kxshfbhatms7aooa', 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 92, '55njsqpc4izy2wogf188whtrd', 'Pedro Marques']]</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 74, 'J. Assehnoun', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 87, 'F. Grillitsch', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 95, 'Rui Mendes', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 74, 'e605oixdrqumxkqm0y1bijbvt', 'J. Assehnoun', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 87, '1ekkj2b713kjnugsk4dz50q1h', 'F. Grillitsch', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 95, 'ewbakrn2dqmy062scjnz0pecp', 'Rui Mendes', 'YC']]</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 6, 'J. Veldmate'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 8, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 21, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 25, 'S. Bergwijn'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, 'R. Živković'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 84, 'M. Bouchouari']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 6, 'ew4kbwq27lxqocg0920amphw5', 'J. Veldmate'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 8, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 21, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 25, '6hrp4zuxh40i3tccmk5s0j5xx', 'S. Bergwijn'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 58, '7wphtxp293kv4o3x1b6zusrmd', 'R. Živković'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 84, '2gonj4ylypwritcayysoqj3hm', 'M. Bouchouari']]</t>
         </is>
       </c>
     </row>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 7, 'R. Flamingo', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 59, 'S. Tronstad', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 62, 'M. Wittek', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 64, 'K. Kozłowski', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 85, 'E. Llansana', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 90, 'M. Jonathans', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 92, 'M. Bero', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 7, 'cgsmk5437f466uoqvol7devze', 'R. Flamingo', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 59, '4ecptuxoyx485mmhrubuscgyd', 'S. Tronstad', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 62, '5gyjq8tsjxk396qt4hqlwn3dh', 'M. Wittek', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 64, 'dvof4p3jx1gi6i9uelbmudl62', 'K. Kozłowski', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 85, '5n65xhwbd6dm3uynl4h7k920a', 'E. Llansana', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 90, 'dotvgi9g50m2axfw4isamd1ck', 'M. Jonathans', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 92, '4idru0svqcqjpi03b4jhqyd3p', 'M. Bero', 'YC']]</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
@@ -10052,7 +10052,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 8, 'P. Rommens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 20, 'P. Rommens'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 49, 'M. Bero'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 93, 'S. van Duivenbooden']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 8, 'dtglxu78mwbkvog0jnusmdc5x', 'P. Rommens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 20, 'dtglxu78mwbkvog0jnusmdc5x', 'P. Rommens'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 49, '4idru0svqcqjpi03b4jhqyd3p', 'M. Bero'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 93, '45vh3c99keqayr9hj0r6x0ei2', 'S. van Duivenbooden']]</t>
         </is>
       </c>
     </row>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 19, 'M. van Duinen', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 26, 'Igor Paixão', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 47, 'Q. Hartman', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 74, 'J. Baas', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 83, 'J. Donkor', 'YC']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 19, '7y0acvcg9km8dz51t5ndy23md', 'M. van Duinen', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 26, 'e0cy0gwf04lohf0xjef0af8fe', 'Igor Paixão', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 47, '4fcjml5xkrwp4jykruzrzub1m', 'Q. Hartman', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 74, 'f07qmqesi1rpw7eapoz9rb0gk', 'J. Baas', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 83, '4w7a5n358oifbqkyftop0rtka', 'J. Donkor', 'YC']]</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 4, 'K. Goudmijn'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 11, 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 20, 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 50, 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 66, 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 78, 'P. Wålemark']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 4, 'a46irqckxabod18j2c0qfixre', 'K. Goudmijn'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 11, '504o2odlvra056ouwcgreopgp', 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 20, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 50, '504o2odlvra056ouwcgreopgp', 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 66, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 78, '1957std7hji9ca7bd29y8at7u', 'P. Wålemark']]</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 38, 'Y. Sugawara', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 86, 'M. Kerkez', 'YC']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 38, 'ad2qplv0aa66l11ipq6yh0hd5', 'Y. Sugawara', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 86, 'a2zavv31d2aadyddk0kjttdgq', 'M. Kerkez', 'YC']]</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 18, 'V. Pavlidis']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 18, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis']]</t>
         </is>
       </c>
     </row>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 31, 'M. Hilgers', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 87, 'J. Assehnoun', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 91, 'M. Heylen', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 31, '69cvlhfo7ulmz4o5ztlj1wlm2', 'M. Hilgers', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 87, 'e605oixdrqumxkqm0y1bijbvt', 'J. Assehnoun', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 91, '4l8n194otkmyc3op4u111l5n9', 'M. Heylen', 'YC']]</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 5, 'R. van Wolfswinkel'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 67, 'M. Sadílek']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 5, '36veg0wk1z3om89daf0clbl5h', 'R. van Wolfswinkel'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 67, '9qoc020keotb4s72a09zm5pzp', 'M. Sadílek']]</t>
         </is>
       </c>
     </row>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 26, 'T. Haye', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 40, 'S. Adewoye', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 26, '7jtag81mvpom3bfgezx8txbdh', 'T. Haye', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 40, '8przxwwothu3crflys7ahl4dm', 'S. Adewoye', 'YC']]</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 34, 'G. Vidović', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 42, 'Y. Sugawara', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 93, 'M. de Wit', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 34, '4212luiyivgvje1vm1ojieicq', 'G. Vidović', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 42, 'ad2qplv0aa66l11ipq6yh0hd5', 'Y. Sugawara', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 93, '3uq3lrjyj4mnvq6162b0jyhnt', 'M. de Wit', 'YC']]</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 77, 'V. Pavlidis'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 87, 'M. Sankoh']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 77, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 87, 'b2uznyb9b8fxsy57450mbmwru', 'M. Sankoh']]</t>
         </is>
       </c>
     </row>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 4, 'G. Cox', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 17, 'B. Adekanye', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 56, 'T. Buitink', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 80, 'E. Llansana', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 91, 'T. Taşçı', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 94, 'B. Yılmaz', 'YC']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 4, 'b2h6iojtnu8rzb81vw4rbfrop', 'G. Cox', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 17, '7lpwkpwfw656re3pymntslv55', 'B. Adekanye', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 56, 'hjb0mn4fgmfiimwn5odvl8fd', 'T. Buitink', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 80, '5n65xhwbd6dm3uynl4h7k920a', 'E. Llansana', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 91, 'emrt1s5yfgtex867u98gbt0fe', 'T. Taşçı', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 94, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz', 'YC']]</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -10660,7 +10660,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 21, 'B. Kuipers'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 44, 'B. Adekanye']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 21, '6ydojoa3581jgszpjqj7i8zpx', 'B. Kuipers'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 44, '7lpwkpwfw656re3pymntslv55', 'B. Adekanye']]</t>
         </is>
       </c>
     </row>
@@ -10749,7 +10749,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 45, 'B. Vriends', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 51, 'N. Madueke', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 52, 'V. van Crooij', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 70, 'A. Verschueren', 'YC']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 45, '5gs7jd1eigk4jisxbr9a1yvp', 'B. Vriends', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 51, 'e3il1t1s5lrn4g8t85fcm40oa', 'N. Madueke', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 52, '2nwthqvbk70e2qo35dgp35979', 'V. van Crooij', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 70, '723av2redj2ej6livx0g81wwl', 'A. Verschueren', 'YC']]</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 46, 'O. Idrissi', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 46, 'M. van der Hoorn', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 60, 'M. van der Maarel', 'YC']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 46, 'a89554tzfy4nfxrycpr2z0xjp', 'O. Idrissi', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 46, 'aafz6q5ggn9e6m5hprc71lgph', 'M. van der Hoorn', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 60, '1s7vp9ovsa1jo7tu7nisykn9x', 'M. van der Maarel', 'YC']]</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 3, 'J. Toornstra'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 90, 'A. Jahanbakhsh']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 3, 'ely6vpyueden4b6ozfmspwgk5', 'J. Toornstra'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 90, 'a8cgbwioykhqztfjgztfn7dud', 'A. Jahanbakhsh']]</t>
         </is>
       </c>
     </row>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 26, 'D. van Kaam', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 54, 'S. van der Water', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 73, 'A. Bangura', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 77, 'G. Oristanio', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 26, '7pz3qz589b7v3pkb9h0hv73l5', 'D. van Kaam', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 54, '4utb2o5c0e57kf0iwdavpzg15', 'S. van der Water', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 73, '3u2783a9ukglf8yg3dere8wve', 'A. Bangura', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 77, '3kbhgmnf6bhfgut0jxf4m2sfe', 'G. Oristanio', 'YC']]</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 8, 'B. Ould-Chikh'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 9, 'R. Mühren'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 74, 'H. Veerman']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 8, '3dc82sro077by40u3qdmhw0r9', 'B. Ould-Chikh'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 9, '6jqn5grsuhuo5at81pzahr6xh', 'R. Mühren'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 74, 'c5jk0pvcvqddy0xiqv6qkesph', 'H. Veerman']]</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 50, 'J. Sánchez', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 58, 'D. Rensch', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 69, 'Francisco Conceição', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, 'Iván Márquez', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 50, '29m8py8czo6w0zf2arwolirjd', 'J. Sánchez', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 58, '6sg2ot7z9kfyrlgjkmpqvejqi', 'D. Rensch', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 69, '2x44f29a52v8kpkkjsuiiywdm', 'Francisco Conceição', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, '570htztcvfsu947xw6fvtzmc5', 'Iván Márquez', 'YC']]</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 38, 'D. Klaassen'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 52, 'L. Dimata']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 38, 'baakmd4ndnulbl9npvmq90mvp', 'D. Klaassen'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 52, '76n4eg1xu5qvf9bkwy4p8jsut', 'L. Dimata']]</t>
         </is>
       </c>
     </row>
@@ -11150,7 +11150,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 37, 'M. Azarkan', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 40, 'L. van Gelderen', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 59, 'C. Driouech', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 61, 'T. Suslov', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 81, 'I. Määttä', 'YC']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 37, '36q7nfs7t68aeg3z54rnr31pm', 'M. Azarkan', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 40, '6gj1r8dnoy17pemp9xtng6sbt', 'L. van Gelderen', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 59, '6jhavdnaitqn6ydme8a526aui', 'C. Driouech', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 61, '4t85yj2ijymrz5vf457jcihre', 'T. Suslov', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 81, 'ar7ybu7dordgt2yfx5inux62', 'I. Määttä', 'YC']]</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 69, 'R. El Yaakoubi']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 69, '934ldgpefo90za10cq49k0o6i', 'R. El Yaakoubi']]</t>
         </is>
       </c>
     </row>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 54, 'Y. Sugawara', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 59, 'T. Reijnders', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 68, 'J. Karlsson', 'YC']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 54, 'ad2qplv0aa66l11ipq6yh0hd5', 'Y. Sugawara', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 59, '2w7xspkzg7b9ghl20me202ove', 'T. Reijnders', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 68, '33yauarx84sam5u05vgyqxfxl', 'J. Karlsson', 'YC']]</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 33, 'D. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 46, 'T. Reijnders']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 33, '8ymqihdfqc7esda7y407lebx1', 'D. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 46, '2w7xspkzg7b9ghl20me202ove', 'T. Reijnders']]</t>
         </is>
       </c>
     </row>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 66, 'L. Valente', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 66, '29fr98or3mqippn84z3p9ihhw', 'L. Valente', 'YC']]</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 19, 'Igor Paixão'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 30, 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 91, 'S. Giménez']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 19, 'e0cy0gwf04lohf0xjef0af8fe', 'Igor Paixão'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 30, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 91, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez']]</t>
         </is>
       </c>
     </row>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 23, 'J. van Mullem', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 90, 'M. van Duinen', 'YC']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 23, '6ovzd9akutufagsd8kmxmsei2', 'J. van Mullem', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 90, '7y0acvcg9km8dz51t5ndy23md', 'M. van Duinen', 'YC']]</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 91, 'J. Kitolano']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 91, '8n9t52eeli3s39r8ujjhjt7je', 'J. Kitolano']]</t>
         </is>
       </c>
     </row>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 13, 'A. Sampsted', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 35, 'D. Rensch', 'RC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 51, 'R. van Wolfswinkel', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 55, 'D. Tadić', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 61, 'R. Zerrouki', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 73, 'C. Tzolis', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 13, '2teefpvijsbzag4yi7fm1pyol', 'A. Sampsted', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 35, '6sg2ot7z9kfyrlgjkmpqvejqi', 'D. Rensch', 'RC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 51, '36veg0wk1z3om89daf0clbl5h', 'R. van Wolfswinkel', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 55, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 61, 'dc119ejc7lls2rd3ywigl2smi', 'R. Zerrouki', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 73, 'acffs01m2p3b4uemzjrp51d9m', 'C. Tzolis', 'YC']]</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 31, 'D. Murkin', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 31, 'a02jtmvlc1tlstvt96pa1hisq', 'D. Murkin', 'YC']]</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 63, 'M. Seuntjens'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 69, 'X. Mbuyamba'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 81, 'F. Da Silva']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 63, 'atbvv2os8m7nfs0p128w5a6l1', 'M. Seuntjens'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 69, 'c9epkro6fot3km9zak1kswfhm', 'X. Mbuyamba'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 81, 'f15kg1dhysflr9u8igyvhxkdm', 'F. Da Silva']]</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 23, 'M. Wittek', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 23, 'O. Tannane', 'RC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 65, 'L. Schöne', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 81, 'D. Proper', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 87, 'C. Verdonk', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, 'S. El Karouani', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 23, '5gyjq8tsjxk396qt4hqlwn3dh', 'M. Wittek', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 23, '6rfm7p5go1lgv6ccdjqgpallh', 'O. Tannane', 'RC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 65, '9p6nlczeycd0ai4dahjxnf8ph', 'L. Schöne', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 81, 'a76yp8gkkg6frtuhh3d6l46i', 'D. Proper', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 87, '6dd248q0adq6su677bw2kk2c5', 'C. Verdonk', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 88, 'enimk3ibb10vk3f8vrmmhq7oq', 'S. El Karouani', 'YC']]</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 46, 'Iñigo Córdoba'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 65, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 76, 'I. Sangaré'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 99, 'B. Yılmaz']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 46, '4tc5741xue1eigwcu4t7qtuc5', 'Iñigo Córdoba'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 65, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 76, '1abb1gcw7arw1nkbuxnccjca1', 'I. Sangaré'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 99, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz']]</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 3, 'W. Willumsson'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 10, 'B. Adekanye'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 13, 'S. van de Streek'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 90, 'S. Sow']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 3, '5dbx86ca2t7dae8b3t69atii1', 'W. Willumsson'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 10, '7lpwkpwfw656re3pymntslv55', 'B. Adekanye'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 13, '4rp5snknt88bf4lws5t0o9gph', 'S. van de Streek'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 90, '4cyftx5l62gw3ijl29y7t51pl', 'S. Sow']]</t>
         </is>
       </c>
     </row>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 4, 'João Virgínia', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 4, '7rvlba00jv66w7wtdmk178a95', 'João Virgínia', 'YC']]</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 68, 'B. Plat', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 75, 'R. El Yaakoubi', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 68, '8ozlo6qrdavr86guhclwvh84q', 'B. Plat', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 75, '934ldgpefo90za10cq49k0o6i', 'R. El Yaakoubi', 'YC']]</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 18, 'D. Mirani'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 80, 'M. Azarkan']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 18, 'e3akocgpppdty3ayxty1gf6xh', 'D. Mirani'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 80, '36q7nfs7t68aeg3z54rnr31pm', 'M. Azarkan']]</t>
         </is>
       </c>
     </row>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 59, 'R. Živković', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 59, '7wphtxp293kv4o3x1b6zusrmd', 'R. Živković', 'YC']]</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 12, 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 35, 'L. Dimata'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 44, 'R. Živković'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 52, 'I. Cissoko']]</t>
+          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 12, '76n4eg1xu5qvf9bkwy4p8jsut', 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 35, '76n4eg1xu5qvf9bkwy4p8jsut', 'L. Dimata'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 44, '7wphtxp293kv4o3x1b6zusrmd', 'R. Živković'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 52, '4fiks6jvfxzbs9k0s050vmfbo', 'I. Cissoko']]</t>
         </is>
       </c>
     </row>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 53, 'D. Schmidt', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 53, 'tv8e6nxc7jl8wbzf6ojd6dw5', 'D. Schmidt', 'YC']]</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 9, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 18, 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 51, 'V. van Crooij']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 9, '6q77vt9bp8dsq48pa97mfzsa1', 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 18, 'tgu7kztdu9azmvirwu8rrip6', 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 51, '2nwthqvbk70e2qo35dgp35979', 'V. van Crooij']]</t>
         </is>
       </c>
     </row>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 23, 'M. Dijks', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 93, 'K. Scherpen', 'RC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 23, 'cynuwabb849am6ml1b70yr55h', 'M. Dijks', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 93, '84yhv0iilunn0vllz1r5fe7l5', 'K. Scherpen', 'RC']]</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 48, 'G. Til']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 48, '21k54i5a6d9bi4f6gplgzxiw9', 'G. Til']]</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 41, 'P. Clement', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 47, 'J. Lelieveld', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 55, 'J. Amofa', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 68, 'José Fontán', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 41, 'dbg4ducw8j747foxiexle1iad', 'P. Clement', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 47, '7a3ik1dbxkirdt58gwvvtyw9', 'J. Lelieveld', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 55, '90vny1388bdhx8103lp9njac4', 'J. Amofa', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 68, '32pfghvfogjnpbgsj5mk2jhpm', 'José Fontán', 'YC']]</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 24, 'M. Seuntjens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 46, 'José Fontán'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 71, 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 78, 'Y. Oukili']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 24, 'atbvv2os8m7nfs0p128w5a6l1', 'M. Seuntjens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 46, '32pfghvfogjnpbgsj5mk2jhpm', 'José Fontán'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 71, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 78, 'b23be312oxcbusvpjnnriukq2', 'Y. Oukili']]</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 66, 'L. van Gelderen', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 72, 'M. Sørensen', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 76, 'T. Suslov', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 66, '6gj1r8dnoy17pemp9xtng6sbt', 'L. van Gelderen', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 72, 'a87w6l9zsbahdi4knm1347zs9', 'M. Sørensen', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 76, '4t85yj2ijymrz5vf457jcihre', 'T. Suslov', 'YC']]</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 5, 'A. Sarr'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 40, 'F. Krüger'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 81, 'P. van Amersfoort'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 82, 'A. Sarr']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 5, 'amvonu36at4dg7ksi1ioczi3u', 'A. Sarr'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 40, '4k9shzwgauyy7w2911uev75yh', 'F. Krüger'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 81, 'e4nlf2a8hs9xju5jgxszkyytx', 'P. van Amersfoort'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 82, 'amvonu36at4dg7ksi1ioczi3u', 'A. Sarr']]</t>
         </is>
       </c>
     </row>
@@ -12770,7 +12770,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 50, 'T. Booth', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 80, 'A. Salah-Eddine', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 50, '28o7vv0jud22hmg4h649yozqh', 'T. Booth', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 80, 'dxmulnxbs11kpi1goq5hl9cve', 'A. Salah-Eddine', 'YC']]</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
@@ -12780,7 +12780,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 46, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 64, 'V. Misidjan']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 46, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 64, '3c4l2e3gzgpqrc2ygkbmp0jpx', 'V. Misidjan']]</t>
         </is>
       </c>
     </row>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 8, 'K. Taylor', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 24, 'A. Jahanbakhsh', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 24, 'J. Timber', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 39, 'E. Álvarez', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 55, 'O. Kökçü', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 60, 'M. Pedersen', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, 'M. Wieffer', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 80, 'D. Klaassen', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 8, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 24, 'a8cgbwioykhqztfjgztfn7dud', 'A. Jahanbakhsh', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 24, 'aqlakf0mo95rlktf6xdbaegh5', 'J. Timber', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 39, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 55, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 60, 'e6xexn53yyoxmdt5naduyx8bu', 'M. Pedersen', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, '672cwl9zj2d6lce6jda350vvu', 'M. Wieffer', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 80, 'baakmd4ndnulbl9npvmq90mvp', 'D. Klaassen', 'YC']]</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 34, 'Igor Paixão'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 71, 'D. Klaassen']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 34, 'e0cy0gwf04lohf0xjef0af8fe', 'Igor Paixão'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 71, 'baakmd4ndnulbl9npvmq90mvp', 'D. Klaassen']]</t>
         </is>
       </c>
     </row>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 41, 'Z. Vanheusden', 'YC']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 41, '86vxgtv8m65pypbngqan36y21', 'Z. Vanheusden', 'YC']]</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
@@ -12980,7 +12980,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 4, 'D. de Wit'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 11, 'B. Yılmaz'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 24, 'Ximo Navarro'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 56, 'V. Pavlidis']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 4, '8ymqihdfqc7esda7y407lebx1', 'D. de Wit'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 11, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 24, '51b7kbz09togoaueykwbm385', 'Ximo Navarro'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 56, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis']]</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 19, 'R. Živković', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 29, 'J. Bakayoko', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 43, 'Mauro Júnior', 'RC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 64, 'M. Bouchouari', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 70, 'I. Sangaré', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 70, 'J. Teze', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 81, 'P. Max', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 95, 'O. Romeny', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 19, '7wphtxp293kv4o3x1b6zusrmd', 'R. Živković', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 29, 'bx6j2y1hnu63lawn3rdoep1m2', 'J. Bakayoko', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 43, 'c6ip6gwp8yvchd1n3dv42go9', 'Mauro Júnior', 'RC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 64, '2gonj4ylypwritcayysoqj3hm', 'M. Bouchouari', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 70, '1abb1gcw7arw1nkbuxnccjca1', 'I. Sangaré', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 70, '2e0o5pwinz3zhg9pqg5vej9ih', 'J. Teze', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 81, '5mbkc1nqmirbtfml9aklqr5xx', 'P. Max', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 95, '55e0z1vhb48go6y2io7h80aqy', 'O. Romeny', 'YC']]</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 24, 'L. Bernadou']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 24, '49x98sk3wf7sjshrlou5vnvje', 'L. Bernadou']]</t>
         </is>
       </c>
     </row>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 51, 'O. Edvardsen', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 70, 'P. Hatzidiakos', 'YC']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 51, '7dkhv2l8y6jq20l1dc2ye17je', 'O. Edvardsen', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 70, 'ayqy2vql1oumokqly9ahfrnx1', 'P. Hatzidiakos', 'YC']]</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 38, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, 'D. Mihailovic'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 87, 'Y. Sugawara'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 92, 'W. Willumsson'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 95, 'Z. Buurmeester']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 38, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 57, 'b8vbhw29ucubzzmgv0nge1omh', 'D. Mihailovic'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 87, 'ad2qplv0aa66l11ipq6yh0hd5', 'Y. Sugawara'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 92, '5dbx86ca2t7dae8b3t69atii1', 'W. Willumsson'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 95, 'd29ahwtvs7ls75wdtkf7xr8tm', 'Z. Buurmeester']]</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 96, 'D. Oroz', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 97, 'T. Domgjoni', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 96, '2ez3q7gik3lm5kp1cunfol52h', 'D. Oroz', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 97, '4snaidw6iaeo0k20gjfm35nft', 'T. Domgjoni', 'YC']]</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
@@ -13392,7 +13392,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 33, 'R. van Wolfswinkel'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 44, 'G. Vidović'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 52, 'M. Bero'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 59, 'V. Černý']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 33, '36veg0wk1z3om89daf0clbl5h', 'R. van Wolfswinkel'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 44, '4212luiyivgvje1vm1ojieicq', 'G. Vidović'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 52, '4idru0svqcqjpi03b4jhqyd3p', 'M. Bero'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 59, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý']]</t>
         </is>
       </c>
     </row>
@@ -13482,7 +13482,7 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 72, 'A. Sarr', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 88, 'G. Cox', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 72, 'amvonu36at4dg7ksi1ioczi3u', 'A. Sarr', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 88, 'b2h6iojtnu8rzb81vw4rbfrop', 'G. Cox', 'YC']]</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 58, 'Úmaro Embaló'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 98, 'B. Yılmaz']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 58, '8qqyo9093i0wtapxq219wjzzd', 'Úmaro Embaló'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 98, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz']]</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 6, 'T. Douvikas']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 6, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas']]</t>
         </is>
       </c>
     </row>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 32, 'M. Wieffer', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 40, 'D. Proper', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 47, 'Iván Márquez', 'RC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 91, 'A. Baldursson', 'YC']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 32, '672cwl9zj2d6lce6jda350vvu', 'M. Wieffer', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 40, 'a76yp8gkkg6frtuhh3d6l46i', 'D. Proper', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 47, '570htztcvfsu947xw6fvtzmc5', 'Iván Márquez', 'RC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 91, '6lxkawhg9z2jyh7u8d6hp3g15', 'A. Baldursson', 'YC']]</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
@@ -13694,7 +13694,7 @@
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 9, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 48, 'O. Kökçü']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 9, 'dy8wa8cciiae72q2ynm80rlcl', 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 48, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü']]</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 89, 'A. Sher', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 89, 'T. van Bergen', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 93, 'R. Lundqvist', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 89, '44t0ew97eyl8ww00sgusx00a2', 'A. Sher', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 89, 'ei9h1loyggj8fnf1q4jfdm710', 'T. van Bergen', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 93, 'b4bzaam658g6wf3knwxlghas5', 'R. Lundqvist', 'YC']]</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 77, 'D. van Kaam']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 77, '7pz3qz589b7v3pkb9h0hv73l5', 'D. van Kaam']]</t>
         </is>
       </c>
     </row>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 70, 'F. Stanković', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 70, '7dg8woqlx67ch0ji3ujhgb52i', 'F. Stanković', 'YC']]</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 59, 'D. Mirani'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 80, 'M. Kudus']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 59, 'e3akocgpppdty3ayxty1gf6xh', 'D. Mirani'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 80, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus']]</t>
         </is>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 5, 'M. Bouchouari', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 26, 'I. Bel Hassani', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 50, 'I. Bel Hassani', 'RC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 55, 'M. Kramer', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 64, 'V. Anita', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'S. Augustijns', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 94, 'Y. Oukili', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 5, '2gonj4ylypwritcayysoqj3hm', 'M. Bouchouari', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 26, '93cf9npj6wl6vrxw7hetf6ok5', 'I. Bel Hassani', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 50, '93cf9npj6wl6vrxw7hetf6ok5', 'I. Bel Hassani', 'RC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 55, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 64, 'evexihkozqignope6k57tjgt1', 'V. Anita', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 89, 'w32h1te98uqq53j053qm3pm2', 'S. Augustijns', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 94, 'b23be312oxcbusvpjnnriukq2', 'Y. Oukili', 'YC']]</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 3, 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 28, 'J. Lelieveld']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 3, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 28, '7a3ik1dbxkirdt58gwvvtyw9', 'J. Lelieveld']]</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14106,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 55, 'A. El Ghazi', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 62, 'G. Nauber', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 69, 'J. Idzes', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 79, 'É. Gutiérrez', 'YC']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 55, 'c8j50o9oqu2okdpjsr3nvnhsl', 'A. El Ghazi', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 62, '2ekx0fvuf0dsat062oj430d05', 'G. Nauber', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 69, '7nfr8xuo637qma7ovxx4r9fmy', 'J. Idzes', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 79, '9uuk73i8obc7ji0dnan352nkl', 'É. Gutiérrez', 'YC']]</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 14, 'J. Veerman'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 64, 'A. El Ghazi']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 14, 'd4j19ipiaeuetyij08fofgs15', 'J. Veerman'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 64, 'c8j50o9oqu2okdpjsr3nvnhsl', 'A. El Ghazi']]</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 56, 'M. Eerdhuijzen', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 76, 'Iván Márquez', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 84, 'J. Kitolano', 'YC']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 56, 'ubuh5wgnl0o5bn3wirdmectm', 'M. Eerdhuijzen', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 76, '570htztcvfsu947xw6fvtzmc5', 'Iván Márquez', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 84, '8n9t52eeli3s39r8ujjhjt7je', 'J. Kitolano', 'YC']]</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 58, 'A. Verschueren'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 80, 'Pedro Marques']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 58, '723av2redj2ej6livx0g81wwl', 'A. Verschueren'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 80, '55njsqpc4izy2wogf188whtrd', 'Pedro Marques']]</t>
         </is>
       </c>
     </row>
@@ -14309,7 +14309,7 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 88, 'T. Halilović', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 88, 'aie09n600h7ozeg6zl6anithx', 'T. Halilović', 'YC']]</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 21, 'P. van Amersfoort'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 32, 'B. Białek'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 45, 'G. Vidović'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 47, 'M. Manhoef']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 21, 'e4nlf2a8hs9xju5jgxszkyytx', 'P. van Amersfoort'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 32, '9bzwr8qhl6547tjrsjsity4x6', 'B. Białek'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 45, '4212luiyivgvje1vm1ojieicq', 'G. Vidović'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 47, 'czh4r9efdbw4fvdux0enl127e', 'M. Manhoef']]</t>
         </is>
       </c>
     </row>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 92, 'N. Viergever', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 92, 'c2an5ksdu6jbap3x3jp3z9c5x', 'N. Viergever', 'YC']]</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
@@ -14426,7 +14426,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 12, 'T. Douvikas'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 16, 'T. Douvikas'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 20, 'M. Dekker'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 30, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 34, 'V. Pavlidis'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 41, 'N. Viergever'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 65, 'T. Douvikas'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 70, 'M. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 78, 'V. Pavlidis'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 80, 'S. van de Streek']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 12, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 16, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 20, '6zzcoo9k4ebqtlux49rbb5fro', 'M. Dekker'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 30, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 34, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 41, 'c2an5ksdu6jbap3x3jp3z9c5x', 'N. Viergever'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 65, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 70, '3uq3lrjyj4mnvq6162b0jyhnt', 'M. de Wit'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 78, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 80, '4rp5snknt88bf4lws5t0o9gph', 'S. van de Streek']]</t>
         </is>
       </c>
     </row>
@@ -14520,7 +14520,7 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 38, 'J. Bijlow', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 66, 'R. Pröpper', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 75, 'Q. Hartman', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 81, 'R. Zerrouki', 'YC']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 38, '9pgr69ub37hmr76gwbfw7lhw5', 'J. Bijlow', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 66, 'lduqoe45t2fnbn9s9rbvlnf9', 'R. Pröpper', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 75, '4fcjml5xkrwp4jykruzrzub1m', 'Q. Hartman', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 81, 'dc119ejc7lls2rd3ywigl2smi', 'R. Zerrouki', 'YC']]</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 30, 'S. Giménez'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 68, 'J. Brenet']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 30, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 68, '6p4fs5rivwt0e45twlsf6ajth', 'J. Brenet']]</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 58, 'E. Álvarez', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 59, 'C. Driouech', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 58, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 59, '6jhavdnaitqn6ydme8a526aui', 'C. Driouech', 'YC']]</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 15, 'D. Tadić'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 36, 'R. El Yaakoubi'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 45, 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 61, 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 83, 'D. Rensch']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 15, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 36, '934ldgpefo90za10cq49k0o6i', 'R. El Yaakoubi'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 45, 'baakmd4ndnulbl9npvmq90mvp', 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 61, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 83, '6sg2ot7z9kfyrlgjkmpqvejqi', 'D. Rensch']]</t>
         </is>
       </c>
     </row>
@@ -14725,7 +14725,7 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 70, 'I. Määttä', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 70, 'ar7ybu7dordgt2yfx5inux62', 'I. Määttä', 'YC']]</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 21, 'G. Oristanio'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 50, 'J. Hove'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 55, 'C. Twigt'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 73, 'R. Pepi'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 78, 'R. Mühren']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 21, '3kbhgmnf6bhfgut0jxf4m2sfe', 'G. Oristanio'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 50, 'alxccjq2y6il5yjw108a0axnt', 'J. Hove'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 55, '5shfqpd5fj05qrp1jlzd08ftg', 'C. Twigt'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 73, 'emglxnqrlqskt8krglv7sziwa', 'R. Pepi'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 78, '6jqn5grsuhuo5at81pzahr6xh', 'R. Mühren']]</t>
         </is>
       </c>
     </row>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 16, 'L. Bergsma', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 43, 'R. Uldriķis', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 45, 'B. Yılmaz', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 64, 'G. Cox', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 72, 'D. Siovas', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 83, 'T. Buitink', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 16, '7r2ifipuieqiar5n00o2j5uj9', 'L. Bergsma', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 43, 'afsin57n25r53ifmqyfmbzqol', 'R. Uldriķis', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 45, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 64, 'b2h6iojtnu8rzb81vw4rbfrop', 'G. Cox', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 72, '7t19aebk75lrt41hmclk18mhh', 'D. Siovas', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 83, 'hjb0mn4fgmfiimwn5odvl8fd', 'T. Buitink', 'YC']]</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
@@ -14840,7 +14840,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 31, 'M. Hoedemakers'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 75, 'B. Yılmaz'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, 'Iñigo Córdoba']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 31, '8o13oyr0lqkr5sw7j9ekdan6x', 'M. Hoedemakers'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 75, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, '4tc5741xue1eigwcu4t7qtuc5', 'Iñigo Córdoba']]</t>
         </is>
       </c>
     </row>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 26, 'T. Reijnders', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 36, 'R. Mühren', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 61, 'Y. Sugawara', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 76, 'G. Oristanio', 'RC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 90, 'V. Pavlidis', 'YC']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 26, '2w7xspkzg7b9ghl20me202ove', 'T. Reijnders', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 36, '6jqn5grsuhuo5at81pzahr6xh', 'R. Mühren', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 61, 'ad2qplv0aa66l11ipq6yh0hd5', 'Y. Sugawara', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 76, '3kbhgmnf6bhfgut0jxf4m2sfe', 'G. Oristanio', 'RC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 90, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis', 'YC']]</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 62, 'X. Mbuyamba'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 83, 'J. Odgaard']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 62, 'c9epkro6fot3km9zak1kswfhm', 'X. Mbuyamba'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 83, '1t7nph4960rjzu7rgi47sf8ix', 'J. Odgaard']]</t>
         </is>
       </c>
     </row>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 66, 'P. Bochniewicz', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'J. Toornstra', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 86, 'S. van Ottele', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 66, '1tj9gmnm02s8f12zwzvuwnoph', 'P. Bochniewicz', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'ely6vpyueden4b6ozfmspwgk5', 'J. Toornstra', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 86, '34258m1cvslz8r6d17nv4b90q', 'S. van Ottele', 'YC']]</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 69, 'T. Douvikas']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 69, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas']]</t>
         </is>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 59, 'D. Pröpper', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 59, 'K. Kozłowski', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 68, 'M. Wittek', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 68, 'M. Bero', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 76, 'M. te Wierik', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 59, '1hyepaipbp5bzpm01mtlk9785', 'D. Pröpper', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 59, 'dvof4p3jx1gi6i9uelbmudl62', 'K. Kozłowski', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 68, '5gyjq8tsjxk396qt4hqlwn3dh', 'M. Wittek', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 68, '4idru0svqcqjpi03b4jhqyd3p', 'M. Bero', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 76, 'ait187bpr8we72jvfxxt6ttjp', 'M. te Wierik', 'YC']]</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 33, 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 38, 'C. Arcus'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 43, 'J. Assehnoun'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 87, 'D. Oroz']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 33, 'czh4r9efdbw4fvdux0enl127e', 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 38, 'd3qx3gwypipcl2azrj9ing9ud', 'C. Arcus'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 43, 'e605oixdrqumxkqm0y1bijbvt', 'J. Assehnoun'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 87, '2ez3q7gik3lm5kp1cunfol52h', 'D. Oroz']]</t>
         </is>
       </c>
     </row>
@@ -15332,7 +15332,7 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 40, 'M. Seuntjens', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 90, 'E. Vaessen', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 93, 'S. Horemans', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 40, 'atbvv2os8m7nfs0p128w5a6l1', 'M. Seuntjens', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 90, '7wo4627xo1mx5k0vpwhe8hqll', 'E. Vaessen', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 93, '3r6elcuru7no13hrfczmwbmy1', 'S. Horemans', 'YC']]</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
@@ -15433,7 +15433,7 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 59, 'O. Wijndal', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 60, 'M. Breij', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 68, 'R. Balk', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 71, 'A. Bangura', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 59, 'dafbvyorudvujxw7zswicykmh', 'O. Wijndal', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 60, 'ae7ij4u0xy9iru6qvdw2i9fu2', 'M. Breij', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 68, 'e1wk520xrgbtriixo4kj3pnje', 'R. Balk', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 71, '3u2783a9ukglf8yg3dere8wve', 'A. Bangura', 'YC']]</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 36, 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 79, 'B. Brobbey'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 93, 'B. Brobbey']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 36, '7joybllup4h9oe6zfhcepjy6t', 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, '7joybllup4h9oe6zfhcepjy6t', 'S. Berghuis'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 79, '9c2i7ddl2uh7kuhwq62klkyui', 'B. Brobbey'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 93, '9c2i7ddl2uh7kuhwq62klkyui', 'B. Brobbey']]</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 49, 'D. Proper', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 64, 'C. Verdonk', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 77, 'I. Bronkhorst', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 89, 'S. El Karouani', 'YC']]</t>
+          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 49, 'a76yp8gkkg6frtuhh3d6l46i', 'D. Proper', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 64, '6dd248q0adq6su677bw2kk2c5', 'C. Verdonk', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 77, 'cdhqb1a4h246hu0u13pm0tqay', 'I. Bronkhorst', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 89, 'enimk3ibb10vk3f8vrmmhq7oq', 'S. El Karouani', 'YC']]</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 35, 'F. Stokkers']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 35, '94b7i139jyk6hs6ioqlztg1jp', 'F. Stokkers']]</t>
         </is>
       </c>
     </row>
@@ -15646,7 +15646,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 8, 'A. El Ghazi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 68, 'T. Hazard'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 81, 'A. Jahanbakhsh'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 96, 'A. Jahanbakhsh']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 8, 'c8j50o9oqu2okdpjsr3nvnhsl', 'A. El Ghazi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 68, '3y9nm18as1wxhizq3fyazb2t', 'T. Hazard'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 81, 'a8cgbwioykhqztfjgztfn7dud', 'A. Jahanbakhsh'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 96, 'a8cgbwioykhqztfjgztfn7dud', 'A. Jahanbakhsh']]</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 31, 'S. Steijn', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 31, 'ahwtdhrerarmljk9bh0tcpk6i', 'S. Steijn', 'YC']]</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 5, 'S. Steijn'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 69, 'O. Antman']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 5, 'ahwtdhrerarmljk9bh0tcpk6i', 'S. Steijn'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 69, '3nto7ft0b2a47lqd7ethkkrxm', 'O. Antman']]</t>
         </is>
       </c>
     </row>
@@ -15842,7 +15842,7 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, 'O. Kökçü', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 89, 'M. Köhlert', 'YC']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 79, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 89, '8wb6zb0imo0295asm428cur55', 'M. Köhlert', 'YC']]</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 22, 'L. Geertruida'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 34, 'S. Giménez'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 75, 'S. van Ottele']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 22, '4yyekuopwb7otz18rqfgwjht5', 'L. Geertruida'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 34, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 75, '34258m1cvslz8r6d17nv4b90q', 'S. van Ottele']]</t>
         </is>
       </c>
     </row>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 14, 'M. Azarkan', 'YC']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 14, '36q7nfs7t68aeg3z54rnr31pm', 'M. Azarkan', 'YC']]</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 20, 'S. Mijnans'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 27, 'J. Karlsson'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 30, 'S. Mijnans'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 35, 'J. Odgaard'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 38, 'V. Pavlidis']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 20, '7jpreaads35pnnfqbn7hmrmy', 'S. Mijnans'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 27, '33yauarx84sam5u05vgyqxfxl', 'J. Karlsson'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 30, '7jpreaads35pnnfqbn7hmrmy', 'S. Mijnans'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 35, '1t7nph4960rjzu7rgi47sf8ix', 'J. Odgaard'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 38, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis']]</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 17, 'M. Seuntjens'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 50, 'B. Brobbey'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 78, 'J. Timber'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 81, 'M. Kudus']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 17, 'atbvv2os8m7nfs0p128w5a6l1', 'M. Seuntjens'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 50, '9c2i7ddl2uh7kuhwq62klkyui', 'B. Brobbey'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 78, 'aqlakf0mo95rlktf6xdbaegh5', 'J. Timber'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 81, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus']]</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16146,7 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 36, 'K. Veendorp', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 59, 'Iñigo Córdoba', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 36, '6ciggfx8p0zkak8qxe1p7yzth', 'K. Veendorp', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 59, '4tc5741xue1eigwcu4t7qtuc5', 'Iñigo Córdoba', 'YC']]</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 76, 'O. Özyakup']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 76, 'bznrsqachpfr9l2wnfjy8samt', 'O. Özyakup']]</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 88, 'R. Pröpper', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 88, 'lduqoe45t2fnbn9s9rbvlnf9', 'R. Pröpper', 'YC']]</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 16, 'J. Brenet'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 17, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 20, 'M. Hilgers']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 16, '6p4fs5rivwt0e45twlsf6ajth', 'J. Brenet'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 17, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 20, '69cvlhfo7ulmz4o5ztlj1wlm2', 'M. Hilgers']]</t>
         </is>
       </c>
     </row>
@@ -16342,7 +16342,7 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 30, 'L. Bergsma', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 41, 'O. Tannane', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 48, 'N. Foor', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 79, 'A. Bangura', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 87, 'P. Sandler', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 93, 'V. Pichel', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 30, '7r2ifipuieqiar5n00o2j5uj9', 'L. Bergsma', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 41, '6rfm7p5go1lgv6ccdjqgpallh', 'O. Tannane', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 48, '4qyx713hq3c6d5lwdfp98jd1x', 'N. Foor', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 79, '3u2783a9ukglf8yg3dere8wve', 'A. Bangura', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 87, '913pg8qqcjp99h5fjybbenob9', 'P. Sandler', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 93, 'bw10e3zz1g0e4gomq2saqcb9w', 'V. Pichel', 'YC']]</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
@@ -16452,7 +16452,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 27, 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 46, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 69, 'J. Branthwaite'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 73, 'J. Bakayoko'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 84, 'Fábio Silva'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 88, 'G. Til']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 27, '4drquvq035kmr2smvzph82bx1', 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 46, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 69, '1ph4g125dfsijfjzjpcvpcmlm', 'J. Branthwaite'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 73, 'bx6j2y1hnu63lawn3rdoep1m2', 'J. Bakayoko'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 84, '7snt4uu7f2d0g7utjm2xfis8a', 'Fábio Silva'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 88, '21k54i5a6d9bi4f6gplgzxiw9', 'G. Til']]</t>
         </is>
       </c>
     </row>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 26, 'J. de Guzmán', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 49, 'J. Amofa', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 51, 'I. Lidberg', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 93, 'J. Idzes', 'YC']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 26, '6w59kdfilru1152bjutstu2fp', 'J. de Guzmán', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 49, '90vny1388bdhx8103lp9njac4', 'J. Amofa', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 51, 'hxqybxg5578sgx0gx5qb834l', 'I. Lidberg', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 93, '7nfr8xuo637qma7ovxx4r9fmy', 'J. Idzes', 'YC']]</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
@@ -16553,7 +16553,7 @@
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 4, 'V. van Crooij'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 53, 'F. Stokkers'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 58, 'T. Lauritsen']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 4, '2nwthqvbk70e2qo35dgp35979', 'V. van Crooij'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 53, '94b7i139jyk6hs6ioqlztg1jp', 'F. Stokkers'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 58, '6q77vt9bp8dsq48pa97mfzsa1', 'T. Lauritsen']]</t>
         </is>
       </c>
     </row>
@@ -16641,7 +16641,7 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 40, 'D. Oroz', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 51, 'C. Arcus', 'RC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 53, 'C. Bozdoğan', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'J. Toornstra', 'YC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 40, '2ez3q7gik3lm5kp1cunfol52h', 'D. Oroz', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 51, 'd3qx3gwypipcl2azrj9ing9ud', 'C. Arcus', 'RC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 53, 'b33sm106xc7g3h4bcqtawja7e', 'C. Bozdoğan', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 84, 'ely6vpyueden4b6ozfmspwgk5', 'J. Toornstra', 'YC']]</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 63, 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 94, 'M. Wittek']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 63, 'czh4r9efdbw4fvdux0enl127e', 'M. Manhoef'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 94, '5gyjq8tsjxk396qt4hqlwn3dh', 'M. Wittek']]</t>
         </is>
       </c>
     </row>
@@ -16741,7 +16741,7 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 41, 'M. te Wierik', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 68, 'R. Oratmangoen', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 73, 'M. te Wierik', 'Y2C'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 83, 'L. Bernadou', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 92, 'J. Vlak', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 41, 'ait187bpr8we72jvfxxt6ttjp', 'M. te Wierik', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 68, 'am0ea3bvmnin4gco2ndny2noq', 'R. Oratmangoen', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 73, 'ait187bpr8we72jvfxxt6ttjp', 'M. te Wierik', 'Y2C'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 83, '49x98sk3wf7sjshrlou5vnvje', 'L. Bernadou', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 92, 'cqrk42u0s5w8yuq6mnckug02y', 'J. Vlak', 'YC']]</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 12, 'R. Pepi'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 14, 'M. Araujo']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 12, 'emglxnqrlqskt8krglv7sziwa', 'R. Pepi'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 1, 14, '9fkdgor4mv7f8eqz65ugnnydx', 'M. Araujo']]</t>
         </is>
       </c>
     </row>
@@ -16843,7 +16843,7 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 63, 'J. Branthwaite', 'YC']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 63, '1ph4g125dfsijfjzjpcvpcmlm', 'J. Branthwaite', 'YC']]</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
@@ -16853,7 +16853,7 @@
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 33, 'O. Boussaid'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 41, 'J. Bakayoko'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 57, 'L. de Jong'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 60, 'S. van de Streek']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 33, '3mp92d5s002hi523kl4zmgrft', 'O. Boussaid'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 41, 'bx6j2y1hnu63lawn3rdoep1m2', 'J. Bakayoko'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 57, '4drquvq035kmr2smvzph82bx1', 'L. de Jong'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 60, '4rp5snknt88bf4lws5t0o9gph', 'S. van de Streek']]</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 92, 'R. Rosario', 'YC']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 92, '5yxt2x26j6ym393evvb5utvdg', 'R. Rosario', 'YC']]</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 6, 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 27, 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 84, 'M. Kudus']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 6, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 27, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 64, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 84, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus']]</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 29, 'P. Sandler', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 35, 'R. El Yaakoubi', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 47, 'R. El Yaakoubi', 'Y2C'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 81, 'C. Verdonk', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 87, 'C. Driouech', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 87, 'S. Nieuwpoort', 'YC']]</t>
+          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 29, '913pg8qqcjp99h5fjybbenob9', 'P. Sandler', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 35, '934ldgpefo90za10cq49k0o6i', 'R. El Yaakoubi', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 47, '934ldgpefo90za10cq49k0o6i', 'R. El Yaakoubi', 'Y2C'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 81, '6dd248q0adq6su677bw2kk2c5', 'C. Verdonk', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 87, '6jhavdnaitqn6ydme8a526aui', 'C. Driouech', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 87, '3ox3ey99addc8m1ee8qrzuuhh', 'S. Nieuwpoort', 'YC']]</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 44, 'M. Mattsson'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 73, 'S. El Karouani'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 85, 'A. Musaba']]</t>
+          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 44, '8inyievyp1az6q3dtlkpynf56', 'M. Mattsson'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 73, 'enimk3ibb10vk3f8vrmmhq7oq', 'S. El Karouani'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 85, '6oynq4ickyxictf2e0ilemqne', 'A. Musaba']]</t>
         </is>
       </c>
     </row>
@@ -17146,7 +17146,7 @@
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 36, 'M. Paulissen', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 81, 'S. van der Water', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 91, 'M. Mahi', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 36, '426st78oi43eortpbfkuxw72t', 'M. Paulissen', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 81, '4utb2o5c0e57kf0iwdavpzg15', 'S. van der Water', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 91, '9gsuha7f2ldpqo091yrlykvyt', 'M. Mahi', 'YC']]</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
@@ -17156,7 +17156,7 @@
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 1, 'B. Johnsen'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 22, 'O. Sahraoui'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 65, 'M. van Ewijk']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 1, 'lfp411vh3vtjbvd6xra4jpp1', 'B. Johnsen'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 22, '24daij2a9hj0luq5eaxeejzvu', 'O. Sahraoui'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 65, 'etzj9ltadjsvkmahib7hor90q', 'M. van Ewijk']]</t>
         </is>
       </c>
     </row>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 49, 'B. Yılmaz'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 76, 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 86, 'Julen Lobete'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 90, 'F. Jozefzoon']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 49, '8rqula41yqtbwycgemsw9ixud', 'B. Yılmaz'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 76, 'e8wfxueczkhrj92rytelw5vx1', 'M. Kramer'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 86, 'a0i7hc92p5ijqi4jqw8krh8x6', 'Julen Lobete'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 90, 'b1o6ctqy1mhjg4iiec8aedat', 'F. Jozefzoon']]</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17346,7 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 75, 'M. Vlap', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 75, 'ad9kukqx4xulbvelacgwgqvah', 'M. Vlap', 'YC']]</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
@@ -17356,7 +17356,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 6, 'P. Rommens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 16, 'I. Lidberg']]</t>
+          <t>[['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 6, 'dtglxu78mwbkvog0jnusmdc5x', 'P. Rommens'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 16, 'hxqybxg5578sgx0gx5qb834l', 'I. Lidberg']]</t>
         </is>
       </c>
     </row>
@@ -17448,7 +17448,7 @@
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 23, 'P. Hatzidiakos', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 28, 'M. Wieffer', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 36, 'V. Pavlidis', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 38, 'S. Giménez', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 50, 'O. Idrissi', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 75, 'W. Goes', 'YC']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 23, 'ayqy2vql1oumokqly9ahfrnx1', 'P. Hatzidiakos', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 28, '672cwl9zj2d6lce6jda350vvu', 'M. Wieffer', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 36, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 38, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 50, 'a89554tzfy4nfxrycpr2z0xjp', 'O. Idrissi', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 75, '9lixevzo8exxiia17altfw8ic', 'W. Goes', 'YC']]</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
@@ -17458,7 +17458,7 @@
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 17, 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 47, 'A. Jahanbakhsh'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 90, 'M. Pedersen']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 17, 'dy8wa8cciiae72q2ynm80rlcl', 'J. Dilrosun'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 47, 'a8cgbwioykhqztfjgztfn7dud', 'A. Jahanbakhsh'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 90, 'e6xexn53yyoxmdt5naduyx8bu', 'M. Pedersen']]</t>
         </is>
       </c>
     </row>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 55, 'J. Flint', 'YC']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 55, 'ca8qw8jztjxwxuc2foa6dfckq', 'J. Flint', 'YC']]</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
@@ -17561,7 +17561,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 12, 'D. van Mieghem'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 68, 'D. van Mieghem']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 12, '1sb4655mgzrdohlltyk9fqlzp', 'D. van Mieghem'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 68, '1sb4655mgzrdohlltyk9fqlzp', 'D. van Mieghem']]</t>
         </is>
       </c>
     </row>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 21, 'S. Mijnans', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 34, 'M. Hoedemakers', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 67, 'J. Clasie', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 83, 'P. Hatzidiakos', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 92, 'M. Hoedemakers', 'Y2C']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 21, '7jpreaads35pnnfqbn7hmrmy', 'S. Mijnans', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 34, '8o13oyr0lqkr5sw7j9ekdan6x', 'M. Hoedemakers', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 67, '7jgtmmk4b2bgn0syidj6ve7kl', 'J. Clasie', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 83, 'ayqy2vql1oumokqly9ahfrnx1', 'P. Hatzidiakos', 'YC'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 92, '8o13oyr0lqkr5sw7j9ekdan6x', 'M. Hoedemakers', 'Y2C']]</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
@@ -17667,7 +17667,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 40, 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 73, 'W. Goes'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 85, 'B. Johnsen']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 40, '7sd87ylfbtgwgpb70hf68cel1', 'V. Pavlidis'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 73, '9lixevzo8exxiia17altfw8ic', 'W. Goes'], ['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 2, 85, 'lfp411vh3vtjbvd6xra4jpp1', 'B. Johnsen']]</t>
         </is>
       </c>
     </row>
@@ -17760,7 +17760,7 @@
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 27, 'L. Brouwers', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 38, 'S. Sambo', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 46, 'M. Sagnan', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 49, 'A. Auassar', 'RC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 71, 'J. de Guzmán', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 93, 'Y. Namli', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 96, 'B. Ramselaar', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 27, 'eu6pfkiah7otafyryg6ll7y09', 'L. Brouwers', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 38, 'f57vs3qmmob743hdk2dxf56cq', 'S. Sambo', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 46, '8p47d0e54hgl7d86vur1m5nmx', 'M. Sagnan', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 49, 'e8zpc22dwlmgkkwoqpgwxsn2t', 'A. Auassar', 'RC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 71, '6w59kdfilru1152bjutstu2fp', 'J. de Guzmán', 'YC'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 93, 'dficbkp6sp4kw7xihaxneozpx', 'Y. Namli', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 96, 'b427p4czppyjddx3xuuvc2okp', 'B. Ramselaar', 'YC']]</t>
         </is>
       </c>
       <c r="T180" t="inlineStr">
@@ -17770,7 +17770,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 74, 'V. Jensen'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 88, 'O. Boussaid'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 90, 'A. Descotte']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 74, 'egcs7b6ixb62ep08t7jznf9ih', 'V. Jensen'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 88, '3mp92d5s002hi523kl4zmgrft', 'O. Boussaid'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 90, 'd7ml58kwwpetvnw46qja9ru5m', 'A. Descotte']]</t>
         </is>
       </c>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 55, 'R. Zerrouki', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 90, 'I. Sangaré', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 55, 'dc119ejc7lls2rd3ywigl2smi', 'R. Zerrouki', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 90, '1abb1gcw7arw1nkbuxnccjca1', 'I. Sangaré', 'YC']]</t>
         </is>
       </c>
       <c r="T181" t="inlineStr">
@@ -17870,7 +17870,7 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 9, 'Fábio Silva'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 47, 'V. Misidjan'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 57, 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 74, 'X. Simons']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 9, '7snt4uu7f2d0g7utjm2xfis8a', 'Fábio Silva'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 47, '3c4l2e3gzgpqrc2ygkbmp0jpx', 'V. Misidjan'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 57, '4drquvq035kmr2smvzph82bx1', 'L. de Jong'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 74, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons']]</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 52, 'E. Álvarez', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 75, 'O. Wijndal', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 52, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 75, 'dafbvyorudvujxw7zswicykmh', 'O. Wijndal', 'YC']]</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 30, 'M. van Ginkel'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 32, 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 54, 'E. Álvarez']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 30, '98fjpfhrww2qdifsi8viybaol', 'M. van Ginkel'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 32, 'baakmd4ndnulbl9npvmq90mvp', 'D. Klaassen'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 54, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez']]</t>
         </is>
       </c>
     </row>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 10, 'Ximo Navarro'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 16, 'M. Wieffer'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 43, 'S. Giménez'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 48, 'Deroy Duarte'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 63, 'Igor Paixão'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, 'D. Siovas']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 10, '51b7kbz09togoaueykwbm385', 'Ximo Navarro'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 16, '672cwl9zj2d6lce6jda350vvu', 'M. Wieffer'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 43, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 48, '5fnmjp63t7m9fg3y2fcw6z015', 'Deroy Duarte'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 63, 'e0cy0gwf04lohf0xjef0af8fe', 'Igor Paixão'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 84, '7t19aebk75lrt41hmclk18mhh', 'D. Siovas']]</t>
         </is>
       </c>
     </row>
@@ -18162,7 +18162,7 @@
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 13, 'M. Kudus', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 46, 'B. van Rooij', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 72, 'A. Baldursson', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 95, 'O. Tannane', 'YC']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 13, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 46, 'qobf1v5kwuz6hj2ooixfw4mi', 'B. van Rooij', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 72, '6lxkawhg9z2jyh7u8d6hp3g15', 'A. Baldursson', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 95, '6rfm7p5go1lgv6ccdjqgpallh', 'O. Tannane', 'YC']]</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 52, 'M. Kudus']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 52, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus']]</t>
         </is>
       </c>
     </row>
@@ -18271,7 +18271,7 @@
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 20, 'R. El Yaakoubi'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 45, 'C. Driouech'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 49, 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 56, 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 60, 'B. Vriends']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 20, '934ldgpefo90za10cq49k0o6i', 'R. El Yaakoubi'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 1, 45, '6jhavdnaitqn6ydme8a526aui', 'C. Driouech'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 49, 'tgu7kztdu9azmvirwu8rrip6', 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 56, '6q77vt9bp8dsq48pa97mfzsa1', 'T. Lauritsen'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 60, '5gs7jd1eigk4jisxbr9a1yvp', 'B. Vriends']]</t>
         </is>
       </c>
     </row>
@@ -18362,7 +18362,7 @@
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 29, 'C. Nunnely', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 65, 'A. Colassin', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 91, 'J. van Aken', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 29, '4pe4ugftevr8859yin36nyll', 'C. Nunnely', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 65, '3hpv677ua2y88yx55iujzqpgq', 'A. Colassin', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 91, 'axgbibg0wdlir6tsrru6rpwph', 'J. van Aken', 'YC']]</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
@@ -18372,7 +18372,7 @@
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 25, 'M. Hilgers'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 34, 'R. Pröpper'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 48, 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 55, 'V. Černý'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 59, 'M. van Ewijk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 90, 'R. Kaib']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 25, '69cvlhfo7ulmz4o5ztlj1wlm2', 'M. Hilgers'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 34, 'lduqoe45t2fnbn9s9rbvlnf9', 'R. Pröpper'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 48, '8fuul8znu2hzdqkxsotqt6u0a', 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 55, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 59, 'etzj9ltadjsvkmahib7hor90q', 'M. van Ewijk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 90, '9hybzhhut4ac2xinqk7kzzpwp', 'R. Kaib']]</t>
         </is>
       </c>
     </row>
@@ -18465,7 +18465,7 @@
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 77, 'K. Bistrović', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 85, 'J. Toornstra', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 96, 'S. van de Streek', 'YC']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 77, 'cnexf6pdh1piheuuqzrbb1t61', 'K. Bistrović', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 85, 'ely6vpyueden4b6ozfmspwgk5', 'J. Toornstra', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 96, '4rp5snknt88bf4lws5t0o9gph', 'S. van de Streek', 'YC']]</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
@@ -18475,7 +18475,7 @@
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 59, 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 68, 'K. Bistrović'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 87, 'T. Noslin']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 59, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 68, 'cnexf6pdh1piheuuqzrbb1t61', 'K. Bistrović'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 87, '71gwdg60saiwwwnnv6is52may', 'T. Noslin']]</t>
         </is>
       </c>
     </row>
@@ -18570,7 +18570,7 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 10, 'M. Pedersen', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 47, 'I. Määttä', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 52, 'I. Määttä', 'Y2C'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 67, 'D. Dankerlui', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 74, 'L. van Gelderen', 'YC']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 10, 'e6xexn53yyoxmdt5naduyx8bu', 'M. Pedersen', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 1, 47, 'ar7ybu7dordgt2yfx5inux62', 'I. Määttä', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 52, 'ar7ybu7dordgt2yfx5inux62', 'I. Määttä', 'Y2C'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 67, 'brqptr56zeku3bgqbixje0hxx', 'D. Dankerlui', 'YC'], ['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 74, '6gj1r8dnoy17pemp9xtng6sbt', 'L. van Gelderen', 'YC']]</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
@@ -18580,7 +18580,7 @@
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 88, 'O. Idrissi']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 88, 'a89554tzfy4nfxrycpr2z0xjp', 'O. Idrissi']]</t>
         </is>
       </c>
     </row>
@@ -18682,7 +18682,7 @@
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 35, 'J. Bakayoko']]</t>
+          <t>[['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 35, 'bx6j2y1hnu63lawn3rdoep1m2', 'J. Bakayoko']]</t>
         </is>
       </c>
     </row>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 73, 'J. Vlak', 'YC']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 73, 'cqrk42u0s5w8yuq6mnckug02y', 'J. Vlak', 'YC']]</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
@@ -18785,7 +18785,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 46, 'F. Stanković'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 67, 'B. Benamar'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 88, 'B. Ould-Chikh'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 92, 'D. van Mieghem']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 46, '7dg8woqlx67ch0ji3ujhgb52i', 'F. Stanković'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 67, 'dbkr1w2xlwnyssid1tv0jlujt', 'B. Benamar'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 88, '3dc82sro077by40u3qdmhw0r9', 'B. Ould-Chikh'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 92, '1sb4655mgzrdohlltyk9fqlzp', 'D. van Mieghem']]</t>
         </is>
       </c>
     </row>
@@ -18877,7 +18877,7 @@
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 57, 'L. van Gelderen', 'YC']]</t>
+          <t>[['Groningen', 'cos9hxi16eitbcbthof7zrm4m', 2, 57, '6gj1r8dnoy17pemp9xtng6sbt', 'L. van Gelderen', 'YC']]</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
@@ -18887,7 +18887,7 @@
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 4, 'J. Karlsson']]</t>
+          <t>[['AZ', '3kfktv64h7kg7zryax1wktr5r', 1, 4, '33yauarx84sam5u05vgyqxfxl', 'J. Karlsson']]</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 56, 'L. Lamprou', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 63, 'C. Driouech', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 68, 'R. Živković', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 79, 'K. Goudmijn', 'YC']]</t>
+          <t>[['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 56, '51tih9z7sxlb4vj3j7tm1ewgl', 'L. Lamprou', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 63, '6jhavdnaitqn6ydme8a526aui', 'C. Driouech', 'YC'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 68, '7wphtxp293kv4o3x1b6zusrmd', 'R. Živković', 'YC'], ['Excelsior', 'dqk062lu0vm8epvytbm6r4mmf', 2, 79, 'a46irqckxabod18j2c0qfixre', 'K. Goudmijn', 'YC']]</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
@@ -18988,7 +18988,7 @@
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 63, 'O. Romeny'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 71, 'O. Romeny']]</t>
+          <t>[['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 63, '55e0z1vhb48go6y2io7h80aqy', 'O. Romeny'], ['Emmen', '3t0vjqtxc8wpjzv82i3oi2ova', 2, 71, '55e0z1vhb48go6y2io7h80aqy', 'O. Romeny']]</t>
         </is>
       </c>
     </row>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 68, 'O. Idrissi', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 85, 'X. Mbuyamba', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 94, 'X. Mbuyamba', 'RC']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 68, 'a89554tzfy4nfxrycpr2z0xjp', 'O. Idrissi', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 85, 'c9epkro6fot3km9zak1kswfhm', 'X. Mbuyamba', 'YC'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 94, 'c9epkro6fot3km9zak1kswfhm', 'X. Mbuyamba', 'RC']]</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
@@ -19087,7 +19087,7 @@
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 12, 'D. van Mieghem'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 52, 'S. Giménez'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 74, 'D. Mirani']]</t>
+          <t>[['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 1, 12, '1sb4655mgzrdohlltyk9fqlzp', 'D. van Mieghem'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 52, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez'], ['Volendam', '6g9qrm72224jrk6tkxxxi8a9n', 2, 74, 'e3akocgpppdty3ayxty1gf6xh', 'D. Mirani']]</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 33, 'A. Ferati', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 40, 'T. Noslin', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 54, 'M. Hilgers', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 85, 'M. van Beijnen', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 89, 'M. Vlap', 'YC']]</t>
+          <t>[['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 33, '9trasqdd75zjxz4kzplb64xjp', 'A. Ferati', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 1, 40, '71gwdg60saiwwwnnv6is52may', 'T. Noslin', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 54, '69cvlhfo7ulmz4o5ztlj1wlm2', 'M. Hilgers', 'YC'], ['Fortuna Sittard', '3ebril33e08ddzob4bhq8awsr', 2, 85, '3momlsgsh0o7u40ydp2f2ocbu', 'M. van Beijnen', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 89, 'ad9kukqx4xulbvelacgwgqvah', 'M. Vlap', 'YC']]</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
@@ -19185,7 +19185,7 @@
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 67, 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 71, 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 77, 'M. Ugalde']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 67, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 71, '8fuul8znu2hzdqkxsotqt6u0a', 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 77, '8fuul8znu2hzdqkxsotqt6u0a', 'M. Ugalde']]</t>
         </is>
       </c>
     </row>
@@ -19274,7 +19274,7 @@
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 53, 'Z. Labyad', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 59, 'M. van der Hoorn', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 80, 'B. van Rooij', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 80, 'M. van der Maarel', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 53, 'bymhffiw7brsfpjzsfqq7bvth', 'Z. Labyad', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 59, 'aafz6q5ggn9e6m5hprc71lgph', 'M. van der Hoorn', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 80, 'qobf1v5kwuz6hj2ooixfw4mi', 'B. van Rooij', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 80, '1s7vp9ovsa1jo7tu7nisykn9x', 'M. van der Maarel', 'YC']]</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 31, 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 48, 'L. Dimata'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 63, 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 67, 'O. Boussaid']]</t>
+          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 31, '76n4eg1xu5qvf9bkwy4p8jsut', 'L. Dimata'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 48, '76n4eg1xu5qvf9bkwy4p8jsut', 'L. Dimata'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 63, '395y7yj6o1xwr6uaxs4sjnjdh', 'B. Dost'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 2, 67, '3mp92d5s002hi523kl4zmgrft', 'O. Boussaid']]</t>
         </is>
       </c>
     </row>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 37, 'D. Schmidt', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 85, 'Fábio Silva', 'YC']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 37, 'tv8e6nxc7jl8wbzf6ojd6dw5', 'D. Schmidt', 'YC'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 85, '7snt4uu7f2d0g7utjm2xfis8a', 'Fábio Silva', 'YC']]</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
@@ -19386,7 +19386,7 @@
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 22, 'R. Balk'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 54, 'P. van Aanholt'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 56, 'A. El Ghazi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 61, 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 65, 'Fábio Silva'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 88, 'A. El Ghazi']]</t>
+          <t>[['Cambuur', 'ears40cp6opsgvhsy0dgyszpd', 1, 22, 'e1wk520xrgbtriixo4kj3pnje', 'R. Balk'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 1, 25, 'exhxdmdq49xj4dnguq03qnlgq', 'X. Simons'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 54, '6yush35gfp1sgyyzicye73rp', 'P. van Aanholt'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 56, 'c8j50o9oqu2okdpjsr3nvnhsl', 'A. El Ghazi'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 61, '1abb1gcw7arw1nkbuxnccjca1', 'I. Sangaré'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 65, '7snt4uu7f2d0g7utjm2xfis8a', 'Fábio Silva'], ['PSV', '24fvcruwqrqvqa3aonf8c3zuy', 2, 88, 'c8j50o9oqu2okdpjsr3nvnhsl', 'A. El Ghazi']]</t>
         </is>
       </c>
     </row>
@@ -19477,7 +19477,7 @@
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 18, 'M. Wittek', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 80, 'M. Wittek', 'RC']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 18, '5gyjq8tsjxk396qt4hqlwn3dh', 'M. Wittek', 'YC'], ['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 2, 80, '5gyjq8tsjxk396qt4hqlwn3dh', 'M. Wittek', 'RC']]</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 7, 'D. Oroz'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 11, 'A. Verschueren'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 45, 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 87, 'J. Kitolano']]</t>
+          <t>[['Vitesse', '6hsriqr3ybvyg94w2k19oal50', 1, 7, '2ez3q7gik3lm5kp1cunfol52h', 'D. Oroz'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 11, '723av2redj2ej6livx0g81wwl', 'A. Verschueren'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 45, 'tgu7kztdu9azmvirwu8rrip6', 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 87, '8n9t52eeli3s39r8ujjhjt7je', 'J. Kitolano']]</t>
         </is>
       </c>
     </row>
@@ -19580,7 +19580,7 @@
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 33, 'O. Sahraoui', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 88, 'P. van Amersfoort', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 89, 'J. Timber', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 92, 'S. Berghuis', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 33, '24daij2a9hj0luq5eaxeejzvu', 'O. Sahraoui', 'YC'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 88, 'e4nlf2a8hs9xju5jgxszkyytx', 'P. van Amersfoort', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 89, 'aqlakf0mo95rlktf6xdbaegh5', 'J. Timber', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 92, '7joybllup4h9oe6zfhcepjy6t', 'S. Berghuis', 'YC']]</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
@@ -19590,7 +19590,7 @@
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 10, 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, 'E. Álvarez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 19, 'S. Bergwijn'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 42, 'P. van Amersfoort'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 52, 'K. Taylor'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 79, 'S. van Hooijdonk']]</t>
+          <t>[['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 10, 'p7vw4thx5wzo49h6hfabcq5m', 'M. Kudus'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 16, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 19, '6hrp4zuxh40i3tccmk5s0j5xx', 'S. Bergwijn'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 42, 'e4nlf2a8hs9xju5jgxszkyytx', 'P. van Amersfoort'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 52, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 2, 79, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk']]</t>
         </is>
       </c>
     </row>
@@ -19689,7 +19689,7 @@
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 7, 'Q. Hartman', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 27, 'O. Idrissi', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 44, 'K. Taylor', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 78, 'J. Sánchez', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 81, 'M. Pedersen', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 89, 'O. Kökçü', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 91, 'M. López', 'YC']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 7, '4fcjml5xkrwp4jykruzrzub1m', 'Q. Hartman', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 27, 'a89554tzfy4nfxrycpr2z0xjp', 'O. Idrissi', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 44, '35qg0rrwtl00pycx468s62m3u', 'K. Taylor', 'YC'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 2, 78, '29m8py8czo6w0zf2arwolirjd', 'J. Sánchez', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 81, 'e6xexn53yyoxmdt5naduyx8bu', 'M. Pedersen', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 89, 'djbw3afgcgkbq22soig0xsjfu', 'O. Kökçü', 'YC'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 91, 'dux0skggr99ydjz3kn58p3wmh', 'M. López', 'YC']]</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
@@ -19699,7 +19699,7 @@
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 5, 'S. Giménez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 17, 'E. Álvarez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 37, 'D. Tadić'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 52, 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 86, 'L. Geertruida']]</t>
+          <t>[['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 1, 5, 'aboxil79ulfa73pckzsdnwp62', 'S. Giménez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 17, 'bp3apdb2ahzacq45k4mzj5jhl', 'E. Álvarez'], ['Ajax', 'd0zdg647gvgc95xdtk1vpbkys', 1, 37, '6m2pk6odyb3atayt6u8cifahh', 'D. Tadić'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 52, '504o2odlvra056ouwcgreopgp', 'S. Szymański'], ['Feyenoord', '20vymiy7bo8wkyxai3ew494fz', 2, 86, '4yyekuopwb7otz18rqfgwjht5', 'L. Geertruida']]</t>
         </is>
       </c>
     </row>
@@ -19798,7 +19798,7 @@
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 44, 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 89, 'V. van Crooij']]</t>
+          <t>[['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 1, 44, 'tgu7kztdu9azmvirwu8rrip6', 'K. Saito'], ['Sparta Rotterdam', '89w5c6pw7vn0dxypi61tt0g4k', 2, 89, '2nwthqvbk70e2qo35dgp35979', 'V. van Crooij']]</t>
         </is>
       </c>
     </row>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 15, 'T. Haye', 'YC']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 15, '7jtag81mvpom3bfgezx8txbdh', 'T. Haye', 'YC']]</t>
         </is>
       </c>
       <c r="T201" t="inlineStr">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 27, 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 40, 'S. van Hooijdonk']]</t>
+          <t>[['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 27, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk'], ['Heerenveen', '4vd2t5schmvvufrfib7f2vjdf', 1, 40, 'dc4n5ylytswddlvd82snkb90q', 'S. van Hooijdonk']]</t>
         </is>
       </c>
     </row>
@@ -19990,7 +19990,7 @@
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 61, 'Julio Pleguezuelo', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 74, 'J. Karlsson', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 93, 'V. Černý', 'YC']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 61, 'dc2wi76ipwc5qbq4eggqd1hp1', 'Julio Pleguezuelo', 'YC'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 74, '33yauarx84sam5u05vgyqxfxl', 'J. Karlsson', 'YC'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 2, 93, 'c1yctqdku2vzho2azsgcy5dcl', 'V. Černý', 'YC']]</t>
         </is>
       </c>
       <c r="T202" t="inlineStr">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 8, 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 11, 'M. Ugalde'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 66, 'J. Karlsson']]</t>
+          <t>[['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 8, '8fuul8znu2hzdqkxsotqt6u0a', 'M. Ugalde'], ['Twente', '4tic29sox7m39fy1ztgv0jsiq', 1, 11, '8fuul8znu2hzdqkxsotqt6u0a', 'M. Ugalde'], ['AZ', '3kfktv64h7kg7zryax1wktr5r', 2, 66, '33yauarx84sam5u05vgyqxfxl', 'J. Karlsson']]</t>
         </is>
       </c>
     </row>
@@ -20092,7 +20092,7 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 20, 'R. Kluivert', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 21, 'J. Toornstra', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 33, 'B. Adekanye', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 86, 'J. Amofa', 'YC']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 20, '9wo8twcbs1jnqzdy0c6y8adey', 'R. Kluivert', 'YC'], ['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 21, 'ely6vpyueden4b6ozfmspwgk5', 'J. Toornstra', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 33, '7lpwkpwfw656re3pymntslv55', 'B. Adekanye', 'YC'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 86, '90vny1388bdhx8103lp9njac4', 'J. Amofa', 'YC']]</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 41, 'T. Douvikas'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 48, 'O. Edvardsen'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 94, 'W. Willumsson']]</t>
+          <t>[['Utrecht', 'ccpscwdcm65czscrun048ecn5', 1, 41, '1p0xp2onnys7jlru55vfgf1pm', 'T. Douvikas'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 1, 48, '7dkhv2l8y6jq20l1dc2ye17je', 'O. Edvardsen'], ['Go Ahead Eagles', 'b79uipsy57y1jqpy07h4i5ovk', 2, 94, '5dbx86ca2t7dae8b3t69atii1', 'W. Willumsson']]</t>
         </is>
       </c>
     </row>
@@ -20192,7 +20192,7 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 29, 'Y. Oukili', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 46, 'E. Vaessen', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 76, 'S. El Karouani', 'YC']]</t>
+          <t>[['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 1, 29, 'b23be312oxcbusvpjnnriukq2', 'Y. Oukili', 'YC'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 46, '7wo4627xo1mx5k0vpwhe8hqll', 'E. Vaessen', 'YC'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 2, 76, 'enimk3ibb10vk3f8vrmmhq7oq', 'S. El Karouani', 'YC']]</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
@@ -20202,7 +20202,7 @@
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 18, 'O. Tannane'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 26, 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 31, 'O. Tannane'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 61, 'V. Anita']]</t>
+          <t>[['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 18, '6rfm7p5go1lgv6ccdjqgpallh', 'O. Tannane'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 26, 'cudl1cjc8kxshfbhatms7aooa', 'E. Tavşan'], ['NEC', '8iawijq7s9s6d85mjz8wdslki', 1, 31, '6rfm7p5go1lgv6ccdjqgpallh', 'O. Tannane'], ['RKC Waalwijk', 'ed5nwjz5za3oyi20nxzgqivmx', 2, 61, 'evexihkozqignope6k57tjgt1', 'V. Anita']]</t>
         </is>
       </c>
     </row>
